--- a/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_train.xlsx
+++ b/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB0F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B990&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB0F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1070&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB1000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B10E0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB1070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1150&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB10E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B11C0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB1150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1230&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB11C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B12A0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB12A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1310&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB1380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1380&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB13F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B13F0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB1460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1460&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB14D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B14D0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB1540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1540&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB1620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B15B0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1620&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB1BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1690&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1700&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1770&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B17E0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDB25E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1850&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC1B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B18C0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC1850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1930&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B19A0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC1700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1A10&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC1690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1A80&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC15B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1AF0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC14D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1B60&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC1070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1BD0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1C40&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1CB0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1D20&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1D90&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1E00&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1E70&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1EE0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1F50&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1FC0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC09E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2030&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B20A0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC07B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2110&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2180&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC06D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B21F0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2260&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC0580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B22D0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC04A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2340&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3634,7 +3634,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C27647148</t>
+          <t>C15023960</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3642,12 +3642,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CC/C1=C\C(=O)O[C@H]2C[C@@H](CC[C@H](CC)/C=C/C=C\CC1)O[C@](O)([C@@H]1CSC(=O)N1)C2</t>
+          <t>N#C[C@]1(C(N)=O)[C@@H]2C=Cc3cc(F)ccc3N2[C@@H](C(=O)c2ccc(Cl)cc2)[C@@H]1c1ccncc1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CC/C1=C\C(=O)O[C@H]2C[C@@H](CC[C@H](CC)/C=C/C=C\CC1)O[C@](O)([C@@H]1CSC(=O)N1)C2</t>
+          <t>N#C[C@]1(C(N)=O)[C@@H]2C=Cc3cc(F)ccc3N2[C@@H](C(=O)c2ccc(Cl)cc2)[C@@H]1c1ccncc1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3661,25 +3661,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>449.61</v>
+        <v>472.91</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L47" t="n">
         <v>3</v>
       </c>
-      <c r="K47" t="n">
-        <v>3</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
       <c r="M47" t="n">
-        <v>84.86</v>
+        <v>100.08</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3690,7 +3690,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC3D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E56CEB0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3702,7 +3702,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C63361845</t>
+          <t>C27647148</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cc1ccc(S(=O)(=O)N[C@H](CC2=c3ccccc3=[NH+]C2)C(=O)N2CC[C@@]3(O)CCCC[C@H]3C2)cc1</t>
+          <t>CC/C1=C\C(=O)O[C@H]2C[C@@H](CC[C@H](CC)/C=C/C=C\CC1)O[C@](O)([C@@H]1CSC(=O)N1)C2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cc1ccc(S(=O)(=O)N[C@H](CC2=c3ccccc3=[NH+]C2)C(=O)N2CC[C@@]3(O)CCCC[C@H]3C2)cc1</t>
+          <t>CC/C1=C\C(=O)O[C@H]2C[C@@H](CC[C@H](CC)/C=C/C=C\CC1)O[C@](O)([C@@H]1CSC(=O)N1)C2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3729,25 +3729,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>496.65</v>
+        <v>449.61</v>
       </c>
       <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
         <v>3</v>
       </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6</v>
-      </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>100.68</v>
+        <v>84.86</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3758,7 +3758,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC3D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E56E8F0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3826,7 +3826,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC3DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5D20&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3894,7 +3894,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC3ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5CB0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3906,7 +3906,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C20153625</t>
+          <t>C41584741</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CC[NH+]1CCN(c2cc(C)c3cc(NC(=S)N4CCN(c5cc(Cl)ccc5C)CC4)ccc3n2)CC1</t>
+          <t>Cc1cc(O)c(C[NH+]2C[C@H]3C[C@@H](C2)c2cccc(=O)n2C3)c2c1C(=O)/C(=C/c1ccc(C(C)(C)C)cc1)O2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CC[NH+]1CCN(c2cc(C)c3cc(NC(=S)N4CCN(c5cc(Cl)ccc5C)CC4)ccc3n2)CC1</t>
+          <t>Cc1cc(O)c(C[NH+]2C[C@@H]3C[C@@H](Cn4c3cccc4=O)C2)c2c1C(=O)/C(=C/c1ccc(C(C)(C)C)cc1)O2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3933,25 +3933,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>524.16</v>
+        <v>511.64</v>
       </c>
       <c r="H51" t="n">
         <v>2</v>
       </c>
       <c r="I51" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
         <v>6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5</v>
       </c>
       <c r="L51" t="n">
         <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>39.08</v>
+        <v>72.97</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3962,7 +3962,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC3F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5A80&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -4030,7 +4030,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDDC3E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4740&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4098,7 +4098,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6C70&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4166,7 +4166,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C0B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6810&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C39462728</t>
+          <t>C14829199</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CC(=O)NC1=C(Cl)C(Cl)=C(NC(C)=O)[C@H]2N=NN=C12</t>
+          <t>C=C(C)[C@@H]1Cc2c(cc(O)c3c2O[C@H]2[C@@H](O)Oc4cc(OC)c(OC)cc4[C@]2(O)C3=O)O1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CC(=O)NC1=C(Cl)C(Cl)=C(NC(C)=O)[C@H]2N=NN=C12</t>
+          <t>C=C(C)[C@@H]1Cc2c(cc(O)c3c2O[C@H]2[C@@H](O)Oc4cc(OC)c(OC)cc4[C@]2(O)C3=O)O1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4205,25 +4205,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>302.12</v>
+        <v>442.42</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>95.28</v>
+        <v>123.91</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4234,7 +4234,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6110&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4246,7 +4246,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C40366902</t>
+          <t>C12817980</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c(C)c1S(=O)(=O)NC1(C#N)CCN(C)CC1</t>
+          <t>C[C@H](C(=O)Nc1ccc(F)cc1)[NH+]1CCC(C(=O)NCc2ccccc2)CC1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c(C)c1S(=O)(=O)NC1(C#N)CCN(C)CC1</t>
+          <t>C[C@H](C(=O)Nc1ccc(F)cc1)[NH+]1CCC(C(=O)NCc2ccccc2)CC1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4273,25 +4273,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>297.38</v>
+        <v>384.48</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
+        <v>6</v>
+      </c>
+      <c r="K56" t="n">
         <v>3</v>
       </c>
-      <c r="K56" t="n">
-        <v>2</v>
-      </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>101.88</v>
+        <v>62.64</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4302,7 +4302,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5C40&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4314,7 +4314,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C42876363</t>
+          <t>C39462728</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>O=S1(=O)C[C@@H](O)[C@@H](Oc2cc3c(cc2CO)OCO3)C1</t>
+          <t>CC(=O)NC1=C(Cl)C(Cl)=C(NC(C)=O)[C@H]2N=NN=C12</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>O=S1(=O)C[C@@H](O)[C@@H](Oc2cc3c(cc2CO)OCO3)C1</t>
+          <t>CC(=O)NC1=C(Cl)C(Cl)=C(NC(C)=O)[C@H]2N=NN=C12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4341,25 +4341,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>302.3</v>
+        <v>302.12</v>
       </c>
       <c r="H57" t="n">
         <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>102.29</v>
+        <v>95.28</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4370,7 +4370,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6650&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4382,7 +4382,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C43706753</t>
+          <t>C40366902</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4390,12 +4390,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CCCN(C(=O)N1CCO[C@@H](C(=O)[O-])C1)C1CC[NH2+]CC1</t>
+          <t>Cc1n[nH]c(C)c1S(=O)(=O)NC1(C#N)CCN(C)CC1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CCCN(C(=O)N1CCO[C@@H](C(=O)[O-])C1)C1CC[NH2+]CC1</t>
+          <t>Cc1n[nH]c(C)c1S(=O)(=O)NC1(C#N)CCN(C)CC1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4409,25 +4409,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>299.37</v>
+        <v>297.38</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
         <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>89.52</v>
+        <v>101.88</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4438,7 +4438,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4DD0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4450,7 +4450,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C48797179</t>
+          <t>C42876363</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4458,12 +4458,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>O=C1CCCc2[nH]c(=O)c(C(=O)Nc3nncs3)cc21</t>
+          <t>O=S1(=O)C[C@@H](O)[C@@H](Oc2cc3c(cc2CO)OCO3)C1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>O=C1CCCc2[nH]c(=O)c(C(=O)Nc3nncs3)cc21</t>
+          <t>O=S1(=O)C[C@@H](O)[C@@H](Oc2cc3c(cc2CO)OCO3)C1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4477,25 +4477,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>290.3</v>
+        <v>302.3</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
         <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>104.81</v>
+        <v>102.29</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4506,7 +4506,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C2E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5690&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4518,7 +4518,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C63374228</t>
+          <t>C43706753</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4526,12 +4526,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)=C1CCN[C@@H](c3c([O-])[nH]c(=O)n(C4CCCCC4)c3=O)[C@H]1[NH+]=2</t>
+          <t>CCCN(C(=O)N1CCO[C@@H](C(=O)[O-])C1)C1CC[NH2+]CC1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)=C1CCN[C@@H](c3c([O-])[nH]c(=O)n(C4CCCCC4)c3=O)[C@H]1[NH+]=2</t>
+          <t>CCCN(C(=O)N1CCO[C@@H](C(=O)[O-])C1)C1CC[NH2+]CC1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4545,25 +4545,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>410.47</v>
+        <v>299.37</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>113.15</v>
+        <v>89.52</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4574,7 +4574,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6DC0&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4586,7 +4586,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C51994630</t>
+          <t>C48797179</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4594,12 +4594,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nc1cc(S(=O)(=O)N[C@@H]2CCCC[C@@H]2O)c(Cl)cc1F</t>
+          <t>O=C1CCCc2[nH]c(=O)c(C(=O)Nc3nncs3)cc21</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Nc1cc(S(=O)(=O)N[C@@H]2CCCC[C@@H]2O)c(Cl)cc1F</t>
+          <t>O=C1CCCc2[nH]c(=O)c(C(=O)Nc3nncs3)cc21</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4613,25 +4613,25 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>322.79</v>
+        <v>290.3</v>
       </c>
       <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
         <v>3</v>
       </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2</v>
-      </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>92.42</v>
+        <v>104.81</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C3C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6C00&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4654,7 +4654,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C62826873</t>
+          <t>C39443870</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4662,12 +4662,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[NH3+]C1(C(=O)Nc2c(Br)cccc2C(=O)[O-])CCCCC1</t>
+          <t>C[C@@H]1C[C@H](C2=NN=C(NC(C)(C)C)SC2)[C@H](C)N1c1ncn[nH]1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[NH3+]C1(C(=O)Nc2c(Br)cccc2C(=O)[O-])CCCCC1</t>
+          <t>C[C@H]1[C@@H](C2=NN=C(NC(C)(C)C)SC2)C[C@@H](C)N1c1ncn[nH]1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4681,25 +4681,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>341.21</v>
+        <v>335.48</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
       </c>
       <c r="I62" t="n">
+        <v>5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
         <v>3</v>
       </c>
-      <c r="J62" t="n">
-        <v>3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2</v>
-      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>96.87</v>
+        <v>81.56</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4710,7 +4710,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5FC0&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4778,7 +4778,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C4A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5540&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4790,7 +4790,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C36271854</t>
+          <t>C44319316</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4798,12 +4798,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCC[C@H](C)[NH+]1Cc1c(-c2ccc3nc([O-])oc3c2)nc2ccc(N)cn12</t>
+          <t>Cc1c(Br)c(O)c(C[C@@H](NC(=O)OC(C)(C)C)C(=O)[O-])c(C)c1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>C[C@H]1CCC[C@@H](C)[NH+]1Cc1c(-c2ccc3nc([O-])oc3c2)nc2ccc(N)cn12</t>
+          <t>Cc1c(Br)c(O)c(C[C@@H](NC(=O)OC(C)(C)C)C(=O)[O-])c(C)c1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4817,25 +4817,25 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>391.48</v>
+        <v>432.25</v>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>96.84999999999999</v>
+        <v>141.83</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4846,7 +4846,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5380&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C44319316</t>
+          <t>C01679675</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cc1c(Br)c(O)c(C[C@@H](NC(=O)OC(C)(C)C)C(=O)[O-])c(C)c1[N+](=O)[O-]</t>
+          <t>Nc1ncc(I)cn1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cc1c(Br)c(O)c(C[C@@H](NC(=O)OC(C)(C)C)C(=O)[O-])c(C)c1[N+](=O)[O-]</t>
+          <t>Nc1ncc(I)cn1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4885,16 +4885,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>432.25</v>
+        <v>221</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>141.83</v>
+        <v>51.8</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4914,7 +4914,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6FF0&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4926,7 +4926,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C01679675</t>
+          <t>C04027654</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4934,12 +4934,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nc1ncc(I)cn1</t>
+          <t>C[C@@]12CC[C@@](C)(O[C@@]1(C)O)[C@](C)(O)O2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Nc1ncc(I)cn1</t>
+          <t>C[C@@]1(O)O[C@]2(C)CC[C@@]1(C)O[C@@]2(C)O</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4953,25 +4953,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>221</v>
+        <v>202.25</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>51.8</v>
+        <v>58.92</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4982,7 +4982,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C5F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5150&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4994,7 +4994,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C04027654</t>
+          <t>C62528118</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5002,12 +5002,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>C[C@@]12CC[C@@](C)(O[C@@]1(C)O)[C@](C)(O)O2</t>
+          <t>Cc1cc(N)cc2c1OC[C@@H](C)C(=O)N2C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>C[C@@]1(O)O[C@]2(C)CC[C@@]1(C)O[C@@]2(C)O</t>
+          <t>Cc1cc(N)cc2c1OC[C@@H](C)C(=O)N2C</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5021,25 +5021,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>202.25</v>
+        <v>220.27</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>58.92</v>
+        <v>55.56</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5050,7 +5050,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4CF0&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5062,7 +5062,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C05192110</t>
+          <t>C03876666</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5070,12 +5070,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NC(=O)CC12C[C@@H]3CC(C[C@@H](C3)C1)C2=O</t>
+          <t>CNC(=O)N(O)[C@@H]1N(N)C(=S)SC1(C)C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NC(=O)CC12C[C@@H]3CC(C[C@@H](C3)C1)C2=O</t>
+          <t>CNC(=O)N(O)[C@@H]1N(N)C(=S)SC1(C)C</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5089,25 +5089,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>207.27</v>
+        <v>250.35</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>60.16</v>
+        <v>81.83</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5118,7 +5118,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C6D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6B90&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5130,7 +5130,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C03876666</t>
+          <t>C05503488</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CNC(=O)N(O)[C@@H]1N(N)C(=S)SC1(C)C</t>
+          <t>C[C@H]1O[C@@H](Sc2ncc[nH]2)[C@@H](O)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CNC(=O)N(O)[C@@H]1N(N)C(=S)SC1(C)C</t>
+          <t>C[C@H]1O[C@@H](Sc2ncc[nH]2)[C@@H](O)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5157,25 +5157,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>250.35</v>
+        <v>246.29</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
         <v>6</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>81.83</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5186,7 +5186,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6AB0&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5198,7 +5198,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C05503488</t>
+          <t>C20528280</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5206,12 +5206,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H](Sc2ncc[nH]2)[C@@H](O)[C@@H](O)[C@@H]1O</t>
+          <t>Nn1c(N/N=C/c2ccc(Cl)cc2)nnc1SCc1cccc(Br)c1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H](Sc2ncc[nH]2)[C@@H](O)[C@@H](O)[C@@H]1O</t>
+          <t>Nn1c(N/N=C/c2ccc(Cl)cc2)nnc1SCc1cccc(Br)c1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5225,25 +5225,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>246.29</v>
+        <v>437.75</v>
       </c>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
         <v>6</v>
       </c>
-      <c r="J70" t="n">
-        <v>2</v>
-      </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>98.59999999999999</v>
+        <v>81.12</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5254,7 +5254,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C7B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C60A0&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5266,7 +5266,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C61887089</t>
+          <t>C02343294</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>N/C(=N/O)[C@H]1CCC[C@@H]1NC(=O)C1CCOCC1</t>
+          <t>S=c1[nH]nc(C2CCCCC2)n1/N=C/c1cccc(Cl)c1Cl</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>N/C(=N/O)[C@H]1CCC[C@@H]1NC(=O)C1CCOCC1</t>
+          <t>S=c1[nH]nc(C2CCCCC2)n1/N=C/c1cccc(Cl)c1Cl</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5293,25 +5293,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>255.32</v>
+        <v>355.29</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
-        <v>96.94</v>
+        <v>45.97</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5322,7 +5322,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C55B0&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5334,7 +5334,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C20528280</t>
+          <t>C58611239</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5342,12 +5342,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nn1c(N/N=C/c2ccc(Cl)cc2)nnc1SCc1cccc(Br)c1</t>
+          <t>Fc1cc2c(c(CSc3nc4cc(F)c(F)cc4[nH]3)c1)OCOC2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Nn1c(N/N=C/c2ccc(Cl)cc2)nnc1SCc1cccc(Br)c1</t>
+          <t>Fc1cc2c(c(CSc3nc4cc(F)c(F)cc4[nH]3)c1)OCOC2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5361,25 +5361,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>437.75</v>
+        <v>352.34</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L72" t="n">
         <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>81.12</v>
+        <v>47.14</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5390,7 +5390,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5460&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5402,7 +5402,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C02343294</t>
+          <t>C00104205</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5410,12 +5410,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>S=c1[nH]nc(C2CCCCC2)n1/N=C/c1cccc(Cl)c1Cl</t>
+          <t>O=C1c2[nH]nc(-c3ccco3)c2[C@@H](c2ccccc2)N1c1ccccc1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>S=c1[nH]nc(C2CCCCC2)n1/N=C/c1cccc(Cl)c1Cl</t>
+          <t>O=C1c2[nH]nc(-c3ccco3)c2[C@@H](c2ccccc2)N1c1ccccc1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5429,25 +5429,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>355.29</v>
+        <v>341.37</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
         <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>45.97</v>
+        <v>62.13</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5458,7 +5458,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4660&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5470,7 +5470,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C58611239</t>
+          <t>C08645160</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fc1cc2c(c(CSc3nc4cc(F)c(F)cc4[nH]3)c1)OCOC2</t>
+          <t>O=C1N=C([N-]c2ccc(O)cc2)SC1=C/C(Cl)=C/c1ccc([N+](=O)[O-])cc1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fc1cc2c(c(CSc3nc4cc(F)c(F)cc4[nH]3)c1)OCOC2</t>
+          <t>O=C1N=C([N-]c2ccc(O)cc2)SC1=C/C(Cl)=C/c1ccc([N+](=O)[O-])cc1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5497,25 +5497,25 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>352.34</v>
+        <v>400.82</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
+        <v>4</v>
+      </c>
+      <c r="K74" t="n">
         <v>3</v>
       </c>
-      <c r="K74" t="n">
-        <v>4</v>
-      </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
-        <v>47.14</v>
+        <v>106.9</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5526,7 +5526,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C61F0&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5538,7 +5538,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C08645160</t>
+          <t>C11756454</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>O=C1N=C([N-]c2ccc(O)cc2)SC1=C/C(Cl)=C/c1ccc([N+](=O)[O-])cc1</t>
+          <t>CCCCCCNc1nc(Cl)nc2cc(OC)c(OC)cc12</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>O=C1N=C([N-]c2ccc(O)cc2)SC1=C/C(Cl)=C/c1ccc([N+](=O)[O-])cc1</t>
+          <t>CCCCCCNc1nc(Cl)nc2cc(OC)c(OC)cc12</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>400.82</v>
+        <v>323.82</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -5574,16 +5574,16 @@
         <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
         <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>106.9</v>
+        <v>56.27</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5594,7 +5594,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0C9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6E30&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5606,7 +5606,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C14461183</t>
+          <t>C39326723</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5614,12 +5614,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Oc1ccc(Br)cc1[C@@H]1Nc2c(OCCOc3ccccc3)cccc2[C@H]2C=CC[C@@H]21</t>
+          <t>CCOC(=O)N1CC2=C(OC(N)=C(C#N)[C@H]2c2ccc(SC)cc2)/C(=C/c2ccc(SC)cc2)C1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Oc1ccc(Br)cc1[C@@H]1Nc2c(OCCOc3ccccc3)cccc2[C@H]2C=CC[C@@H]21</t>
+          <t>CCOC(=O)N1CC2=C(OC(N)=C(C#N)[C@H]2c2ccc(SC)cc2)/C(=C/c2ccc(SC)cc2)C1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5633,25 +5633,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>478.39</v>
+        <v>505.67</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>50.72</v>
+        <v>88.58</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5662,7 +5662,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6490&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5674,7 +5674,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C39326723</t>
+          <t>C33785184</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5682,12 +5682,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CCOC(=O)N1CC2=C(OC(N)=C(C#N)[C@H]2c2ccc(SC)cc2)/C(=C/c2ccc(SC)cc2)C1</t>
+          <t>O=S(=O)(N[C@@H]1c2cccc3cccc(c23)[C@H]1Nc1ccccc1Br)c1ccccc1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CCOC(=O)N1CC2=C(OC(N)=C(C#N)[C@H]2c2ccc(SC)cc2)/C(=C/c2ccc(SC)cc2)C1</t>
+          <t>O=S(=O)(N[C@@H]1c2cccc3cccc(c23)[C@H]1Nc1ccccc1Br)c1ccccc1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5701,25 +5701,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>505.67</v>
+        <v>479.4</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
         <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>88.58</v>
+        <v>58.2</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5730,7 +5730,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CAC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5700&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5742,7 +5742,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C33785184</t>
+          <t>C57084036</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5750,12 +5750,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>O=S(=O)(N[C@@H]1c2cccc3cccc(c23)[C@H]1Nc1ccccc1Br)c1ccccc1</t>
+          <t>O=c1[nH]c(=O)n(Cc2ccccc2)c2c1C(C(F)(F)F)(C(F)(F)F)NC(c1cccs1)=[NH+]2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>O=S(=O)(N[C@@H]1c2cccc3cccc(c23)[C@H]1Nc1ccccc1Br)c1ccccc1</t>
+          <t>O=c1[nH]c(=O)n(Cc2ccccc2)c2c1C(C(F)(F)F)(C(F)(F)F)NC(c1cccs1)=[NH+]2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5769,25 +5769,25 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>479.4</v>
+        <v>475.39</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>58.2</v>
+        <v>80.86</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5798,7 +5798,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CB30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4820&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5810,7 +5810,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C40476300</t>
+          <t>C05835439</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5818,12 +5818,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CCCCCSc1nc2c(c(=O)[nH]1)[C@H](c1ccc(Br)cc1)C1=C(CC(C)(C)CC1=O)N2</t>
+          <t>COc1cc(C[NH2+][C@@H]2CCc3cc(OC)c(OC)c(OC)c3-c3ccc(SC)c(=O)cc32)cc(OC)c1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CCCCCSc1nc2c(c(=O)[nH]1)[C@H](c1ccc(Br)cc1)C1=C(CC(C)(C)CC1=O)N2</t>
+          <t>COc1cc(C[NH2+][C@@H]2CCc3cc(OC)c(OC)c(OC)c3-c3ccc(SC)c(=O)cc32)cc(OC)c1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5837,25 +5837,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>502.48</v>
+        <v>524.66</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J79" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K79" t="n">
         <v>4</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>74.84999999999999</v>
+        <v>79.83</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5866,7 +5866,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CBA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C74C0&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5878,7 +5878,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C57084036</t>
+          <t>C03196304</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>O=c1[nH]c(=O)n(Cc2ccccc2)c2c1C(C(F)(F)F)(C(F)(F)F)NC(c1cccs1)=[NH+]2</t>
+          <t>Cc1cc(N[P@@]2(=S)/C(=C3\N(C)c4ccccc4C3(C)C)C=Nc3c2c(C)nn3CCC#N)n(-c2ccccc2)[nH+]1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>O=c1[nH]c(=O)n(Cc2ccccc2)c2c1C(C(F)(F)F)(C(F)(F)F)NC(c1cccs1)=[NH+]2</t>
+          <t>Cc1cc(N[P@@]2(=S)/C(=C3\N(C)c4ccccc4C3(C)C)C=Nc3c2c(C)nn3CCC#N)n(-c2ccccc2)[nH+]1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5905,25 +5905,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>475.39</v>
+        <v>567.6799999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>80.86</v>
+        <v>88.31</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5934,7 +5934,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CC10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C65E0&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5946,7 +5946,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C34896537</t>
+          <t>C59516368</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5954,12 +5954,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NC(=O)[C@H]1CCC[NH+](CC(=O)N2N=C3/C(=C/c4cccs4)CCC[C@H]3[C@H]2c2cccs2)C1</t>
+          <t>CC(/C=C/c1ccc(N(C)C)cc1)=N/[NH+]=C(/N)S[C@H]1CC(=O)N(c2ccc(Cl)c(Cl)c2)C1=O</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NC(=O)[C@H]1CCC[NH+](CC(=O)N2N=C3/C(=C/c4cccs4)CCC[C@H]3[C@H]2c2cccs2)C1</t>
+          <t>CC(/C=C/c1ccc(N(C)C)cc1)=N/[NH+]=C(/N)S[C@H]1CC(=O)N(c2ccc(Cl)c(Cl)c2)C1=O</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5973,25 +5973,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>469.66</v>
+        <v>505.45</v>
       </c>
       <c r="H81" t="n">
         <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
         <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>80.2</v>
+        <v>92.97</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -6002,7 +6002,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5A10&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -6014,7 +6014,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C05835439</t>
+          <t>C39467570</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6022,12 +6022,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>COc1cc(C[NH2+][C@@H]2CCc3cc(OC)c(OC)c(OC)c3-c3ccc(SC)c(=O)cc32)cc(OC)c1</t>
+          <t>COC1=C[C@H]2C[NH+]3N[P@@](=O)(c4ccccc4O)OC[C@@H]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>COc1cc(C[NH2+][C@@H]2CCc3cc(OC)c(OC)c(OC)c3-c3ccc(SC)c(=O)cc32)cc(OC)c1</t>
+          <t>COC1=C[C@H]2C[NH+]3N[P@@](=O)(c4ccccc4O)OC[C@@H]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6041,25 +6041,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>524.66</v>
+        <v>505.51</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J82" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>79.83</v>
+        <v>115.6</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6070,7 +6070,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CCF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5850&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6082,7 +6082,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C19790688</t>
+          <t>C23817755</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6090,12 +6090,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CC(C)[C@H]1CC[C@H](C)C[C@@H]1OC[C@@H](O)CN1CC[NH+](CCN2C(=O)c3cccc4cccc(c34)C2=O)CC1</t>
+          <t>COCc1c(C(=O)N2CCN(Cc3cc(=O)n4ccsc4n3)CC2)oc2ccccc12</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CC(C)[C@H]1CC[C@H](C)C[C@@H]1OC[C@@H](O)CN1CC[NH+](CCN2C(=O)c3cccc4cccc(c34)C2=O)CC1</t>
+          <t>COCc1c(C(=O)N2CCN(Cc3cc(=O)n4ccsc4n3)CC2)oc2ccccc12</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6109,25 +6109,25 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>522.71</v>
+        <v>438.51</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J83" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K83" t="n">
         <v>5</v>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
-        <v>74.52</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6138,7 +6138,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CD60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4EB0&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6150,7 +6150,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C03196304</t>
+          <t>C65246378</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6158,12 +6158,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cc1cc(N[P@@]2(=S)/C(=C3\N(C)c4ccccc4C3(C)C)C=Nc3c2c(C)nn3CCC#N)n(-c2ccccc2)[nH+]1</t>
+          <t>O=S(=O)(c1ccc(-c2nnc(C3CC3)o2)o1)N1CCN(c2ccc(F)cc2)CC1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cc1cc(N[P@@]2(=S)/C(=C3\N(C)c4ccccc4C3(C)C)C=Nc3c2c(C)nn3CCC#N)n(-c2ccccc2)[nH+]1</t>
+          <t>O=S(=O)(c1ccc(-c2nnc(C3CC3)o2)o1)N1CCN(c2ccc(F)cc2)CC1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6177,25 +6177,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>567.6799999999999</v>
+        <v>418.45</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
         <v>5</v>
       </c>
       <c r="K84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
-        <v>88.31</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6206,7 +6206,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CDD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6CE0&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C38806115</t>
+          <t>C25638569</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6226,12 +6226,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1c(NC(=O)/C=C/c2cc(OC)c(OC)c(OC)c2)sc2c1CC(C)(C)[NH2+]C2(C)C</t>
+          <t>CC(C)[C@@](C)(C#N)NC(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1c(NC(=O)/C=C/c2cc(OC)c(OC)c(OC)c2)sc2c1CC(C)(C)[NH2+]C2(C)C</t>
+          <t>CC(C)[C@@](C)(C#N)NC(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>503.64</v>
+        <v>393.66</v>
       </c>
       <c r="H85" t="n">
         <v>2</v>
@@ -6254,16 +6254,16 @@
         <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>99.7</v>
+        <v>118.1</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6274,7 +6274,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CE40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6880&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6286,7 +6286,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C59516368</t>
+          <t>C09512901</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6294,12 +6294,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CC(/C=C/c1ccc(N(C)C)cc1)=N/[NH+]=C(/N)S[C@H]1CC(=O)N(c2ccc(Cl)c(Cl)c2)C1=O</t>
+          <t>N#Cc1c(CCCNc2ncnc3scc(-c4ccc(F)cc4)c23)n[nH]c1N</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CC(/C=C/c1ccc(N(C)C)cc1)=N/[NH+]=C(/N)S[C@H]1CC(=O)N(c2ccc(Cl)c(Cl)c2)C1=O</t>
+          <t>N#Cc1c(CCCNc2ncnc3scc(-c4ccc(F)cc4)c23)n[nH]c1N</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6313,25 +6313,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>505.45</v>
+        <v>393.45</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
         <v>6</v>
       </c>
       <c r="K86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>92.97</v>
+        <v>116.3</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CEB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C66C0&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6354,7 +6354,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C33154782</t>
+          <t>C05635252</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6362,12 +6362,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1OC)/C(=N\[NH+]=C1\NC(C)(C)Cc3cc(OC)c(OC)cc31)NC(C)(C)C2</t>
+          <t>O=C(NCCCn1cc[nH+]c1)c1cnn2c1N[C@H](c1ccco1)C[C@H]2C(F)(F)F</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1OC)/C(=N\[NH+]=C1\NC(C)(C)Cc3cc(OC)c(OC)cc31)NC(C)(C)C2</t>
+          <t>O=C(NCCCn1cc[nH+]c1)c1cnn2c1N[C@H](c1ccco1)C[C@H]2C(F)(F)F</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6381,25 +6381,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>467.59</v>
+        <v>409.39</v>
       </c>
       <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4</v>
+      </c>
+      <c r="L87" t="n">
         <v>3</v>
       </c>
-      <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>5</v>
-      </c>
-      <c r="K87" t="n">
-        <v>4</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2</v>
-      </c>
       <c r="M87" t="n">
-        <v>87.31</v>
+        <v>91.16</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6410,7 +6410,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CF20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4BA0&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6422,7 +6422,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C65246378</t>
+          <t>C38742530</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6430,12 +6430,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>O=S(=O)(c1ccc(-c2nnc(C3CC3)o2)o1)N1CCN(c2ccc(F)cc2)CC1</t>
+          <t>COc1ccc(CC2=NN3[C@@H]([C@@H]4C=C(C(C)C)N=N4)NN[C@H]3S2)cc1OC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>O=S(=O)(c1ccc(-c2nnc(C3CC3)o2)o1)N1CCN(c2ccc(F)cc2)CC1</t>
+          <t>COc1ccc(CC2=NN3[C@@H]([C@@H]4C=C(C(C)C)N=N4)NN[C@H]3S2)cc1OC</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6449,25 +6449,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>418.45</v>
+        <v>388.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>92.68000000000001</v>
+        <v>82.84</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6478,7 +6478,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0CF90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4F20&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6490,7 +6490,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C25638569</t>
+          <t>C35361315</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6498,12 +6498,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CC(C)[C@@](C)(C#N)NC(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl</t>
+          <t>CCOC(=O)[C@]1(C(N)=O)O[C@@]12CC[C@@H]1[C@H]3CC=C4C[C@@H](OC(C)=O)CC[C@]4(C)[C@H]3CC[C@@]12C</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>CC(C)[C@@](C)(C#N)NC(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl</t>
+          <t>CCOC(=O)[C@]1(C(N)=O)O[C@@]12CC[C@@H]1[C@H]3CC=C4C[C@@H](OC(C)=O)CC[C@]4(C)[C@H]3CC[C@@]12C</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6517,25 +6517,25 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>393.66</v>
+        <v>459.58</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>6</v>
       </c>
       <c r="J89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>118.1</v>
+        <v>108.22</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C69D0&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C35361315</t>
+          <t>C67578082</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6566,12 +6566,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@]1(C(N)=O)O[C@@]12CC[C@@H]1[C@H]3CC=C4C[C@@H](OC(C)=O)CC[C@]4(C)[C@H]3CC[C@@]12C</t>
+          <t>C#CCNC(=O)CNC(=O)Nc1nc2cc3c(cc2s1)OC(F)(F)O3</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@]1(C(N)=O)O[C@@]12CC[C@@H]1[C@H]3CC=C4C[C@@H](OC(C)=O)CC[C@]4(C)[C@H]3CC[C@@]12C</t>
+          <t>C#CCNC(=O)CNC(=O)Nc1nc2cc3c(cc2s1)OC(F)(F)O3</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6585,25 +6585,25 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>459.58</v>
+        <v>368.32</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J90" t="n">
         <v>4</v>
       </c>
       <c r="K90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M90" t="n">
-        <v>108.22</v>
+        <v>101.58</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6614,7 +6614,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6730&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6626,7 +6626,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C67578082</t>
+          <t>C58500444</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6634,12 +6634,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>C#CCNC(=O)CNC(=O)Nc1nc2cc3c(cc2s1)OC(F)(F)O3</t>
+          <t>Cc1sc2nc([C@H](C)Sc3nnnn3C(C)(C)C)nc(N)c2c1C</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>C#CCNC(=O)CNC(=O)Nc1nc2cc3c(cc2s1)OC(F)(F)O3</t>
+          <t>Cc1sc2nc([C@H](C)Sc3nnnn3C(C)(C)C)nc(N)c2c1C</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6653,25 +6653,25 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>368.32</v>
+        <v>363.52</v>
       </c>
       <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>7</v>
+      </c>
+      <c r="J91" t="n">
         <v>3</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>4</v>
       </c>
       <c r="K91" t="n">
         <v>3</v>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M91" t="n">
-        <v>101.58</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6682,7 +6682,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D0E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6500&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6750,7 +6750,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5EE0&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6818,7 +6818,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D1C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5E70&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6886,7 +6886,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6030&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6954,7 +6954,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D2A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4D60&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -7022,7 +7022,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C52A0&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7034,7 +7034,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C12558274</t>
+          <t>C10291948</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7042,12 +7042,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(C23C[C@@H]4C[C@@H](CC(O)(C4)C2)C3)cc1)c1ccc(S(=O)(=O)N2CCCCC2)cc1</t>
+          <t>CC[C@@H](C)Oc1ccc(C(=O)NNC(=O)COc2c(C)cc(Br)cc2Br)cc1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(C23C[C@@H]4C[C@@H](CC(O)(C4)C2)C3)cc1)c1ccc(S(=O)(=O)N2CCCCC2)cc1</t>
+          <t>CC[C@@H](C)Oc1ccc(C(=O)NNC(=O)COc2c(C)cc(Br)cc2Br)cc1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>494.66</v>
+        <v>514.21</v>
       </c>
       <c r="H97" t="n">
         <v>2</v>
@@ -7070,16 +7070,16 @@
         <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K97" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L97" t="n">
         <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>86.70999999999999</v>
+        <v>76.66</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -7090,7 +7090,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4890&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7102,7 +7102,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C20466089</t>
+          <t>C01936458</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CCN(CC)C(=O)[C@@H](C)[C@@H]1CC[C@@]2(C)CC[C@H](NC(C)=O)[C@@H](C)[C@@H]2[C@H]1O</t>
+          <t>CCOc1ccccc1Oc1c(C(F)(F)F)oc2c(C[NH+](CC(C)C)CC(C)C)c(O)ccc2c1=O</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CCN(CC)C(=O)[C@@H](C)[C@@H]1CC[C@@]2(C)CC[C@H](NC(C)=O)[C@@H](C)[C@@H]2[C@H]1O</t>
+          <t>CCOc1ccccc1Oc1c(C(F)(F)F)oc2c(C[NH+](CC(C)C)CC(C)C)c(O)ccc2c1=O</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7129,25 +7129,25 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>366.55</v>
+        <v>508.56</v>
       </c>
       <c r="H98" t="n">
         <v>2</v>
       </c>
       <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>10</v>
+      </c>
+      <c r="K98" t="n">
         <v>3</v>
       </c>
-      <c r="J98" t="n">
-        <v>5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2</v>
-      </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M98" t="n">
-        <v>69.64</v>
+        <v>73.34</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -7158,7 +7158,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D3F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6A40&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7170,7 +7170,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHEMBL523487</t>
+          <t>C12558274</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7178,12 +7178,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>O=C(c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-])N1CCCC1</t>
+          <t>O=C(Nc1ccc(C23C[C@@H]4C[C@@H](CC(O)(C4)C2)C3)cc1)c1ccc(S(=O)(=O)N2CCCCC2)cc1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>O=C(c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-])N1CCCC1</t>
+          <t>O=C(Nc1ccc(C23C[C@@H]4C[C@@H](CC(O)(C4)C2)C3)cc1)c1ccc(S(=O)(=O)N2CCCCC2)cc1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7193,66 +7193,40 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>361.3</v>
+        <v>494.66</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
         <v>4</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K99" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L99" t="n">
         <v>2</v>
       </c>
       <c r="M99" t="n">
-        <v>90.39</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>56000</v>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>CHEMBL985261</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>86.70999999999999</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6960&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7264,7 +7238,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CHEMBL1922225</t>
+          <t>C39652931</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7272,12 +7246,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>C=C(CC[C@@H](C)[C@H]1CC[C@H]2[C@H](CCc3cc(O)ccc3C)C(=O)CC[C@]12C)C(C)C</t>
+          <t>Cc1cc(C(=O)N2C[C@@H](C(=O)NCCc3ccc(Br)cc3)C3(CC[NH2+]CC3)C2)n(C(C)(C)C)n1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>C=C(CC[C@@H](C)[C@H]1CC[C@H]2[C@H](CCc3cc(O)ccc3C)C(=O)CC[C@@]21C)C(C)C</t>
+          <t>Cc1cc(C(=O)N2C[C@@H](C(=O)NCCc3ccc(Br)cc3)C3(CC[NH2+]CC3)C2)n(C(C)(C)C)n1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7287,66 +7261,40 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>410.64</v>
+        <v>531.52</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>100000</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>CHEMBL1926231</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human PLK1 using casein as substrate</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.84</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D4D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C68F0&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7358,7 +7306,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CHEMBL2152768</t>
+          <t>C08800321</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7366,12 +7314,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
+          <t>CCOc1ccc(S(=O)(=O)NC[C@@H](c2ccc3c(c2)CCCN3C)[NH+]2CCCCC2)cc1F</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
+          <t>CCOc1ccc(S(=O)(=O)NC[C@@H](c2ccc3c(c2)CCCN3C)[NH+]2CCCCC2)cc1F</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7381,66 +7329,40 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>504.61</v>
+        <v>476.64</v>
       </c>
       <c r="H101" t="n">
         <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>1</v>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>CHEMBL2157438</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>63.08</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6260&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7452,7 +7374,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CHEMBL1644620</t>
+          <t>C20466089</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7460,12 +7382,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
+          <t>CCN(CC)C(=O)[C@@H](C)[C@@H]1CC[C@@]2(C)CC[C@H](NC(C)=O)[C@@H](C)[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
+          <t>CCN(CC)C(=O)[C@@H](C)[C@@H]1CC[C@@]2(C)CC[C@H](NC(C)=O)[C@@H](C)[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7475,66 +7397,40 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>387.44</v>
+        <v>366.55</v>
       </c>
       <c r="H102" t="n">
         <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>84.83</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q102" t="n">
-        <v>19</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>CHEMBL1648812</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 at 10 uM after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>69.64</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D5B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5E00&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7546,7 +7442,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CHEMBL2216825</t>
+          <t>C20357023</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7554,12 +7450,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
+          <t>Cc1ccc(NC(=O)CSc2nc3c(=O)[nH]cnc3n2C[C@@H]2CCCO2)c(C)c1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
+          <t>Cc1ccc(NC(=O)CSc2nc3c(=O)[nH]cnc3n2C[C@@H]2CCCO2)c(C)c1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7569,66 +7465,40 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>457.48</v>
+        <v>413.5</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M103" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
-        <v>0</v>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>CHEMBL1019633</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>101.9</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5B60&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -7640,7 +7510,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CHEMBL4247506</t>
+          <t>CHEMBL523487</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7648,12 +7518,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
+          <t>O=C(c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-])N1CCCC1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
+          <t>O=C(c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-])N1CCCC1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7667,29 +7537,29 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>472.47</v>
+        <v>361.3</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
       </c>
       <c r="K104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L104" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M104" t="n">
-        <v>82.51000000000001</v>
+        <v>90.39</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Inhibition</t>
+          <t>IC50</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7699,20 +7569,20 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>nM</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>56000</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>CHEMBL4230199</t>
+          <t>CHEMBL985261</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>Inhibition of PLK1 (unknown origin) at 1 uM by mobility shift microfluidics platform based assay relative to control</t>
+          <t>Inhibition of PLK1</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
@@ -7722,7 +7592,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5930&gt;</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -7734,7 +7604,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CHEMBL3759085</t>
+          <t>CHEMBL1922225</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7742,12 +7612,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1ncnc2sc(-c3ccccc3C(N)=O)cc12)c1ccccc1</t>
+          <t>C=C(CC[C@@H](C)[C@H]1CC[C@H]2[C@H](CCc3cc(O)ccc3C)C(=O)CC[C@]12C)C(C)C</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1ncnc2sc(-c3ccccc3C(N)=O)cc12)c1ccccc1</t>
+          <t>C=C(CC[C@@H](C)[C@H]1CC[C@H]2[C@H](CCc3cc(O)ccc3C)C(=O)CC[C@@]21C)C(C)C</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7761,29 +7631,29 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>374.47</v>
+        <v>410.64</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M105" t="n">
-        <v>80.90000000000001</v>
+        <v>37.3</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Inhibition</t>
+          <t>IC50</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7793,20 +7663,20 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>nM</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>-3</v>
+        <v>100000</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>CHEMBL3761596</t>
+          <t>CHEMBL1926231</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>Inhibition of PLK1 (unknown origin) at 500 nM</t>
+          <t>Inhibition of recombinant human PLK1 using casein as substrate</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -7816,7 +7686,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5070&gt;</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -7828,7 +7698,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CHEMBL1516890</t>
+          <t>CHEMBL2216825</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7836,12 +7706,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
+          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
+          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7855,25 +7725,25 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>275.31</v>
+        <v>457.48</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
-        <v>46.92</v>
+        <v>122.6</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -7891,16 +7761,16 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>CHEMBL1962096</t>
+          <t>CHEMBL1019633</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>Inhibition of PLK1 at 1 uM</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
@@ -7910,7 +7780,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4C80&gt;</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -7922,7 +7792,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CHEMBL160333</t>
+          <t>CHEMBL3759085</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7930,12 +7800,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
+          <t>C[C@@H](Nc1ncnc2sc(-c3ccccc3C(N)=O)cc12)c1ccccc1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
+          <t>C[C@@H](Nc1ncnc2sc(-c3ccccc3C(N)=O)cc12)c1ccccc1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7949,25 +7819,25 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>349.17</v>
+        <v>374.47</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
         <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M107" t="n">
-        <v>78.43000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -7985,16 +7855,16 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>3.02</v>
+        <v>-3</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>CHEMBL1962096</t>
+          <t>CHEMBL3761596</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>Inhibition of PLK1 (unknown origin) at 500 nM</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -8004,7 +7874,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D7E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5230&gt;</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -8016,7 +7886,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CHEMBL1909342</t>
+          <t>CHEMBL160333</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -8024,12 +7894,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
+          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
+          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -8043,10 +7913,10 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>305.4</v>
+        <v>349.17</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
         <v>4</v>
@@ -8058,10 +7928,10 @@
         <v>3</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M108" t="n">
-        <v>65.36</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8079,7 +7949,7 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>2.26</v>
+        <v>3.02</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8098,7 +7968,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4970&gt;</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -8110,7 +7980,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CHEMBL1909414</t>
+          <t>CHEMBL1909342</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -8118,12 +7988,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CN(C)CCOc1ccc(-c2nc(-c3ccncc3)c(-c3ccc4c(c3)CC/C4=N\O)[nH]2)cc1</t>
+          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CN(C)CCOc1ccc(-c2nc(-c3ccncc3)c(-c3ccc4c(c3)CC/C4=N\O)[nH]2)cc1</t>
+          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -8137,25 +8007,25 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>453.55</v>
+        <v>305.4</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J109" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>86.63</v>
+        <v>65.36</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8173,7 +8043,7 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8192,7 +8062,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D8C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6F10&gt;</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -8204,7 +8074,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CHEMBL191705</t>
+          <t>CHEMBL1909414</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8212,12 +8082,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
+          <t>CN(C)CCOc1ccc(-c2nc(-c3ccncc3)c(-c3ccc4c(c3)CC/C4=N\O)[nH]2)cc1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
+          <t>CN(C)CCOc1ccc(-c2nc(-c3ccncc3)c(-c3ccc4c(c3)CC/C4=N\O)[nH]2)cc1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -8231,25 +8101,25 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>400.46</v>
+        <v>453.55</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J110" t="n">
         <v>7</v>
       </c>
       <c r="K110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M110" t="n">
-        <v>98.5</v>
+        <v>86.63</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8267,7 +8137,7 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>2.7</v>
+        <v>2.06</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8286,7 +8156,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6EA0&gt;</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -8380,7 +8250,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0D9A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6180&gt;</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -8392,7 +8262,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CHEMBL384073</t>
+          <t>CHEMBL427159</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8400,12 +8270,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc(F)cc2)NC(=O)N1</t>
+          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc(F)cc2)NC(=O)N1</t>
+          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8419,25 +8289,25 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>365.37</v>
+        <v>430.42</v>
       </c>
       <c r="H112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M112" t="n">
-        <v>98.91</v>
+        <v>77.23</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8455,7 +8325,7 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8474,7 +8344,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0DA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4900&gt;</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -8486,7 +8356,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CHEMBL4213524</t>
+          <t>C12217201</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8494,12 +8364,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1)CCN2C(=O)c1ccc2c(n1)N(C1CC1)C(C)C(=O)N2C</t>
+          <t>O=c1c2c3c(sc2ncn1Cc1cccc(F)c1)C[C@H]([NH2+]CCc1c[nH]c2ccccc12)CC3</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1)CCN2C(=O)c1ccc2c(n1)N(C1CC1)C(C)C(=O)N2C</t>
+          <t>O=c1c2c3c(sc2ncn1Cc1cccc(F)c1)C[C@H]([NH2+]CCc1c[nH]c2ccccc12)CC3</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8509,257 +8379,43 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>376.46</v>
+        <v>473.6</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L113" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M113" t="n">
-        <v>56.75</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q113" t="n">
-        <v>4</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>CHEMBL4198487</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) at 10 uM using Ser/Thr-16 peptide substrate after 60 mins by Z'-LYTE assay relative to control</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>67.29000000000001</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0DA80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C63B0&gt;</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>CHEMBL427159</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>430.42</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>6</v>
-      </c>
-      <c r="J114" t="n">
-        <v>5</v>
-      </c>
-      <c r="K114" t="n">
-        <v>5</v>
-      </c>
-      <c r="L114" t="n">
-        <v>5</v>
-      </c>
-      <c r="M114" t="n">
-        <v>77.23</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q114" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0DAF0&gt;</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>CHEMBL506153</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NCCNC)c21</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(C(=O)NCCNC)c21</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>330.35</v>
-      </c>
-      <c r="H115" t="n">
-        <v>3</v>
-      </c>
-      <c r="I115" t="n">
-        <v>8</v>
-      </c>
-      <c r="J115" t="n">
-        <v>6</v>
-      </c>
-      <c r="K115" t="n">
-        <v>3</v>
-      </c>
-      <c r="L115" t="n">
-        <v>3</v>
-      </c>
-      <c r="M115" t="n">
-        <v>136.78</v>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q115" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>CHEMBL1962097</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E7CDE0DB60&gt;</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_train.xlsx
+++ b/F_dataset/DUD-E/PLK1/PLK1_preprocessing/PLK1_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL222419</t>
+          <t>CHEMBL524020</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>457.94</v>
+        <v>544.6</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -587,13 +587,13 @@
         <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>88.59999999999999</v>
+        <v>82.61</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E59B990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C77A70&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL1208966</t>
+          <t>CHEMBL1209603</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(NC5CCN(C)CC5)n4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccccc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(NC5CCN(C)CC5)n4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccccc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>588.14</v>
+        <v>507.54</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>111.19</v>
+        <v>70.14</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74C10&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL1095709</t>
+          <t>CHEMBL493545</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NC(=O)c1nn(CC(F)(F)F)c2c1CCc1cnc(Nc3ccccc3)nc1-2</t>
+          <t>C[C@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NC(=O)c1nn(CC(F)(F)F)c2c1CCc1cnc(Nc3ccccc3)nc1-2</t>
+          <t>C[C@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>388.35</v>
+        <v>525.0700000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>98.72</v>
+        <v>82.61</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B10E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74BA0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL1209603</t>
+          <t>CHEMBL564529</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccccc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CNC2CCCC2)cc1Cl</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccccc4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CNC2CCCC2)cc1Cl</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>507.54</v>
+        <v>495.05</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70.14</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74B30&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL480383</t>
+          <t>CHEMBL490814</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccsc4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@@H](Nc1cc2c(-c3cc(Cl)cc(CCCO)c3)noc2cn1)c1ccccc1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccsc4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@@H](Nc1cc2c(-c3cc(Cl)cc(CCCO)c3)noc2cn1)c1ccccc1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>415.5</v>
+        <v>407.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>88.59999999999999</v>
+        <v>71.18000000000001</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B11C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74AC0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL1222044</t>
+          <t>CHEMBL606395</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc2c([N+](=O)[O-])cc(SC(F)(F)F)cc2[n+]1[O-]</t>
+          <t>COc1ccc(Nc2ncc3c(n2)-c2ccc(OC)cc2NC(=O)C3)cc1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc2c([N+](=O)[O-])cc(SC(F)(F)F)cc2[n+]1[O-]</t>
+          <t>COc1ccc(Nc2ncc3c(n2)-c2ccc(OC)cc2NC(=O)C3)cc1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>339.28</v>
+        <v>362.39</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
       <c r="M7" t="n">
-        <v>113.17</v>
+        <v>85.37</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74A50&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL490814</t>
+          <t>CHEMBL1096028</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1cc2c(-c3cc(Cl)cc(CCCO)c3)noc2cn1)c1ccccc1</t>
+          <t>CC(=O)c1cc(N2CCN(C)CC2)ccc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1cc2c(-c3cc(Cl)cc(CCCO)c3)noc2cn1)c1ccccc1</t>
+          <t>CC(=O)c1cc(N2CCN(C)CC2)ccc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>407.9</v>
+        <v>460.54</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>71.18000000000001</v>
+        <v>122.27</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B12A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C749E0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL1094402</t>
+          <t>CHEMBL519881</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NC(=O)c1nn(C2CCCCC2)c2c1CCc1cnc(Nc3ccccc3)nc1-2</t>
+          <t>COc1cc(Nc2ncc3c(C)nc(-c4cccc(Oc5ccccc5)c4)n3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NC(=O)c1nn(C2CCCCC2)c2c1CCc1cnc(Nc3ccccc3)nc1-2</t>
+          <t>COc1cc(Nc2ncc3c(C)nc(-c4cccc(Oc5ccccc5)c4)n3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>388.48</v>
+        <v>483.53</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>98.72</v>
+        <v>92.03</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74970&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL606395</t>
+          <t>CHEMBL1094820</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2ncc3c(n2)-c2ccc(OC)cc2NC(=O)C3)cc1</t>
+          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Nc3ccccc3)ncc1CC2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2ncc3c(n2)-c2ccc(OC)cc2NC(=O)C3)cc1</t>
+          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Nc3ccccc3)ncc1CC2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>362.39</v>
+        <v>411.47</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>85.37</v>
+        <v>110.75</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74900&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL1096028</t>
+          <t>CHEMBL476145</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CC(=O)c1cc(N2CCN(C)CC2)ccc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
+          <t>CC(C)(C)c1ccc(Nc2nc(NCc3cccnc3)ncc2-c2nn[nH]n2)cc1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CC(=O)c1cc(N2CCN(C)CC2)ccc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
+          <t>CC(C)(C)c1ccc(Nc2nc(NCc3cccnc3)ncc2-c2nn[nH]n2)cc1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>460.54</v>
+        <v>401.48</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>122.27</v>
+        <v>117.19</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B13F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74890&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL519881</t>
+          <t>CHEMBL1209674</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,35 +1236,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(C)nc(-c4cccc(Oc5ccccc5)c4)n3n2)cc(OC)c1OC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccncc4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(C)nc(-c4cccc(Oc5ccccc5)c4)n3n2)cc(OC)c1OC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccncc4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>483.53</v>
+        <v>474.97</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>92.03</v>
+        <v>83.03</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74820&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL1094820</t>
+          <t>CHEMBL1209841</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,44 +1304,44 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Nc3ccccc3)ncc1CC2</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cnn(C)c4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Nc3ccccc3)ncc1CC2</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cnn(C)c4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>411.47</v>
+        <v>511.53</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
         <v>6</v>
       </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
       <c r="K13" t="n">
         <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>110.75</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B14D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C747B0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL476145</t>
+          <t>CHEMBL1209843</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,44 +1372,44 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1ccc(Nc2nc(NCc3cccnc3)ncc2-c2nn[nH]n2)cc1</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4cnn(C)c4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1ccc(Nc2nc(NCc3cccnc3)ncc2-c2nn[nH]n2)cc1</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4cnn(C)c4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>401.48</v>
+        <v>477.98</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>117.19</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74740&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL1209674</t>
+          <t>CHEMBL1208892</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccncc4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N)n4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccncc4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N)n4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>474.97</v>
+        <v>524.53</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>6</v>
@@ -1477,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>83.03</v>
+        <v>121.94</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B15B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C746D0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL1209843</t>
+          <t>CHEMBL1209016</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4cnn(C)c4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cnn(CCN5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4cnn(C)c4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cnn(CCN5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>477.98</v>
+        <v>590.15</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
+        <v>9</v>
+      </c>
+      <c r="K16" t="n">
         <v>6</v>
       </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>87.95999999999999</v>
+        <v>94.44</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74660&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL1208892</t>
+          <t>CHEMBL493326</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N)n4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>COc1ccc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2c1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N)n4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>COc1ccc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2c1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>524.53</v>
+        <v>427.91</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>121.94</v>
+        <v>79.37</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C745F0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL493326</t>
+          <t>CHEMBL480545</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>COc1ccc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2c1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4sccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COc1ccc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2c1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4sccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,16 +1663,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>427.91</v>
+        <v>449.94</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>79.37</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C744A0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL480545</t>
+          <t>CHEMBL1209757</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4sccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cccs4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4sccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4cccs4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>449.94</v>
+        <v>513.5700000000001</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>88.59999999999999</v>
+        <v>70.14</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74430&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C743C0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74350&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL1209758</t>
+          <t>CHEMBL560488</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccc[nH]4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CO)cc1Cl</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccc[nH]4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CO)cc1Cl</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>496.51</v>
+        <v>427.91</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>85.93000000000001</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B18C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C742E0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL1208960</t>
+          <t>CHEMBL1209758</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCOCC5)c4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccc[nH]4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCOCC5)c4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccc[nH]4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>593.63</v>
+        <v>496.51</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
         <v>6</v>
       </c>
-      <c r="J23" t="n">
-        <v>7</v>
-      </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>95.5</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74270&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL560014</t>
+          <t>CHEMBL1208960</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCOCC5)c4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCOCC5)c4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>397.89</v>
+        <v>593.63</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>69.62</v>
+        <v>95.5</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74200&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL522170</t>
+          <t>CHEMBL1209756</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccccn4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccccn4)ccc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>558.63</v>
+        <v>508.53</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
         <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>82.61</v>
+        <v>83.03</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74120&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL1208894</t>
+          <t>CHEMBL560014</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCNCC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCNCC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>559.1</v>
+        <v>397.89</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>98.3</v>
+        <v>69.62</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C740B0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL480382</t>
+          <t>CHEMBL1094408</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4cccs4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>COc1ccc(N2CCN(C)CC2)cc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4cccs4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>COc1ccc(N2CCN(C)CC2)cc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>415.5</v>
+        <v>448.53</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>88.59999999999999</v>
+        <v>114.43</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C74040&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL561286</t>
+          <t>CHEMBL1208894</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CNC2CC2)cc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCNCC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CNC2CC2)cc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(N5CCNCC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>466.99</v>
+        <v>559.1</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>81.65000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73B50&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL550475</t>
+          <t>CHEMBL480382</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCNC(=O)C2)cc1Cl</t>
+          <t>COc1cc2ncn(-c3cc(OCc4cccs4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCNC(=O)C2)cc1Cl</t>
+          <t>COc1cc2ncn(-c3cc(OCc4cccs4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>510.02</v>
+        <v>415.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
@@ -2423,13 +2423,13 @@
         <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>101.96</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71E00&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL475763</t>
+          <t>CHEMBL550475</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccnc(Br)c4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCNC(=O)C2)cc1Cl</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCc4ccnc(Br)c4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCNC(=O)C2)cc1Cl</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>489.35</v>
+        <v>510.02</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
         <v>7</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>101.49</v>
+        <v>101.96</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C70F20&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL1094477</t>
+          <t>CHEMBL475763</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cc1ccccc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccnc(Br)c4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cc1ccccc1Nc1ncc2c(n1)-c1c(c(C(N)=O)nn1C)CC2</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccnc(Br)c4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>334.38</v>
+        <v>489.35</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>98.72</v>
+        <v>101.49</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C70EB0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73AE0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C736F0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72030&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71FC0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71EE0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C704A0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B1FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C702E0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL563989</t>
+          <t>CHEMBL519286</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CNC(C)(C)C)cc1C1CC1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccoc4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CNC(C)(C)C)cc1C1CC1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccoc4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>488.66</v>
+        <v>399.43</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>81.65000000000001</v>
+        <v>101.74</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73BC0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL1096095</t>
+          <t>CHEMBL497167</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Oc3ccccc3)ncc1CC2</t>
+          <t>CC(=O)Nc1ccccc1-c1cc(Cl)cc(-n2nc(C)c3cnc(N[C@@H](C)c4ccccc4)cc32)c1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Oc3ccccc3)ncc1CC2</t>
+          <t>CC(=O)Nc1ccccc1-c1cc(Cl)cc(-n2nc(C)c3cnc(N[C@@H](C)c4ccccc4)cc32)c1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>412.45</v>
+        <v>496.01</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
         <v>6</v>
       </c>
-      <c r="J40" t="n">
-        <v>5</v>
-      </c>
       <c r="K40" t="n">
         <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>107.95</v>
+        <v>71.84</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B20A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71690&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL1094488</t>
+          <t>CHEMBL563989</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Cc3ccccc3)ncc1CC2</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CNC(C)(C)C)cc1C1CC1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Cc3ccccc3)ncc1CC2</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CNC(C)(C)C)cc1C1CC1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,16 +3227,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>410.48</v>
+        <v>488.66</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K41" t="n">
         <v>5</v>
@@ -3245,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>98.72</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C70350&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL1208964</t>
+          <t>CHEMBL1096095</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(NC5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Oc3ccccc3)ncc1CC2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(NC5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Oc3ccccc3)ncc1CC2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3291,11 +3291,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>587.15</v>
+        <v>412.45</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
@@ -3304,16 +3304,16 @@
         <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>98.3</v>
+        <v>107.95</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C70040&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL1209677</t>
+          <t>CHEMBL1094488</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4cccnc4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Cc3ccccc3)ncc1CC2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4cccnc4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
+          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3Cc3ccccc3)ncc1CC2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3359,29 +3359,29 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>508.53</v>
+        <v>410.48</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
         <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>83.03</v>
+        <v>98.72</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B21F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73F40&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL520080</t>
+          <t>CHEMBL1208964</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCC4CCCCC4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(NC5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>COc1cc2ncn(-c3cc(OCC4CCCCC4)c(C(N)=O)s3)c2cc1OC</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3cc(-c4ccnc(NC5CCN(C)CC5)c4)ccc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>415.52</v>
+        <v>587.15</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>88.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73ED0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL557126</t>
+          <t>CHEMBL1209677</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCN(C)CC2)cc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4cccnc4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCN(C)CC2)cc1Cl</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(-c4cccnc4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>510.06</v>
+        <v>508.53</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
         <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>76.09999999999999</v>
+        <v>83.03</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73E60&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL1209018</t>
+          <t>CHEMBL563469</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CCN1CCN(CCCn2cc(-c3ccc4c(c3)ncn4-c3cc(O[C@H](C)c4ccccc4Cl)c(C(N)=O)s3)cn2)CC1</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCC(F)CC2)cc1Cl</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CCN1CCN(CCCn2cc(-c3ccc4c(c3)ncn4-c3cc(O[C@H](C)c4ccccc4Cl)c(C(N)=O)s3)cn2)CC1</t>
+          <t>C[C@H](Oc1cc(-c2cnc3ccccn23)sc1C(N)=O)c1ccc(CN2CCC(F)CC2)cc1Cl</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3563,66 +3563,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>618.21</v>
+        <v>513.04</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>94.44</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL1212570</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 by SPA assay</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>72.86</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5B2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73DF0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3634,34 +3608,34 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C15023960</t>
+          <t>CHEMBL520080</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>N#C[C@]1(C(N)=O)[C@@H]2C=Cc3cc(F)ccc3N2[C@@H](C(=O)c2ccc(Cl)cc2)[C@@H]1c1ccncc1</t>
+          <t>COc1cc2ncn(-c3cc(OCC4CCCCC4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>N#C[C@]1(C(N)=O)[C@@H]2C=Cc3cc(F)ccc3N2[C@@H](C(=O)c2ccc(Cl)cc2)[C@@H]1c1ccncc1</t>
+          <t>COc1cc2ncn(-c3cc(OCC4CCCCC4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>G2 inactive</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>472.91</v>
+        <v>415.52</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -3670,16 +3644,16 @@
         <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
         <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>100.08</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3690,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E56CEB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73D80&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3702,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C27647148</t>
+          <t>C15023960</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3710,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CC/C1=C\C(=O)O[C@H]2C[C@@H](CC[C@H](CC)/C=C/C=C\CC1)O[C@](O)([C@@H]1CSC(=O)N1)C2</t>
+          <t>N#C[C@]1(C(N)=O)[C@@H]2C=Cc3cc(F)ccc3N2[C@@H](C(=O)c2ccc(Cl)cc2)[C@@H]1c1ccncc1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CC/C1=C\C(=O)O[C@H]2C[C@@H](CC[C@H](CC)/C=C/C=C\CC1)O[C@](O)([C@@H]1CSC(=O)N1)C2</t>
+          <t>N#C[C@]1(C(N)=O)[C@@H]2C=Cc3cc(F)ccc3N2[C@@H](C(=O)c2ccc(Cl)cc2)[C@@H]1c1ccncc1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3729,25 +3703,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>449.61</v>
+        <v>472.91</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
         <v>3</v>
       </c>
-      <c r="K48" t="n">
-        <v>3</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
       <c r="M48" t="n">
-        <v>84.86</v>
+        <v>100.08</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3758,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E56E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72650&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3770,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C39276818</t>
+          <t>C27647148</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3778,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CC1(C)CC2=C(CO1)C1=NN[C@H](SCc3nc4ccccc4[nH]3)N1[C@@H](Nc1ccccc1)[C@@H]2C#N</t>
+          <t>CC/C1=C\C(=O)O[C@H]2C[C@@H](CC[C@H](CC)/C=C/C=C\CC1)O[C@](O)([C@@H]1CSC(=O)N1)C2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CC1(C)CC2=C(CO1)C1=NN[C@H](SCc3nc4ccccc4[nH]3)N1[C@@H](Nc1ccccc1)[C@@H]2C#N</t>
+          <t>CC/C1=C\C(=O)O[C@H]2C[C@@H](CC[C@H](CC)/C=C/C=C\CC1)O[C@](O)([C@@H]1CSC(=O)N1)C2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3797,25 +3771,25 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>485.62</v>
+        <v>449.61</v>
       </c>
       <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" t="n">
         <v>3</v>
       </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>5</v>
-      </c>
       <c r="K49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>101.36</v>
+        <v>84.86</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -3826,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72880&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3838,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C40758450</t>
+          <t>C39276818</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3846,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nc1c(N(Cc2ccccc2)c2ccccn2)nc[nH+]c1Nc1cccc2cccnc12</t>
+          <t>CC1(C)CC2=C(CO1)C1=NN[C@H](SCc3nc4ccccc4[nH]3)N1[C@@H](Nc1ccccc1)[C@@H]2C#N</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nc1c(N(Cc2ccccc2)c2ccccn2)nc[nH+]c1Nc1cccc2cccnc12</t>
+          <t>CC1(C)CC2=C(CO1)C1=NN[C@H](SCc3nc4ccccc4[nH]3)N1[C@@H](Nc1ccccc1)[C@@H]2C#N</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3865,25 +3839,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>420.5</v>
+        <v>485.62</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" t="n">
         <v>6</v>
       </c>
-      <c r="J50" t="n">
-        <v>6</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5</v>
-      </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>94.09999999999999</v>
+        <v>101.36</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3894,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73A00&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3906,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C41584741</t>
+          <t>C40758450</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3914,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cc1cc(O)c(C[NH+]2C[C@H]3C[C@@H](C2)c2cccc(=O)n2C3)c2c1C(=O)/C(=C/c1ccc(C(C)(C)C)cc1)O2</t>
+          <t>Nc1c(N(Cc2ccccc2)c2ccccn2)nc[nH+]c1Nc1cccc2cccnc12</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Cc1cc(O)c(C[NH+]2C[C@@H]3C[C@@H](Cn4c3cccc4=O)C2)c2c1C(=O)/C(=C/c1ccc(C(C)(C)C)cc1)O2</t>
+          <t>Nc1c(N(Cc2ccccc2)c2ccccn2)nc[nH+]c1Nc1cccc2cccnc12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3933,25 +3907,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>511.64</v>
+        <v>420.5</v>
       </c>
       <c r="H51" t="n">
         <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>72.97</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3962,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72AB0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3974,7 +3948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C08386466</t>
+          <t>C41584741</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3982,12 +3956,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CC(=O)OC[C@@H]1O[C@@H](NC(=S)NN2CC[NH+](C)CC2)[C@@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
+          <t>Cc1cc(O)c(C[NH+]2C[C@H]3C[C@@H](C2)c2cccc(=O)n2C3)c2c1C(=O)/C(=C/c1ccc(C(C)(C)C)cc1)O2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CC(=O)OC[C@@H]1O[C@@H](NC(=S)NN2CC[NH+](C)CC2)[C@@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
+          <t>Cc1cc(O)c(C[NH+]2C[C@@H]3C[C@@H](Cn4c3cccc4=O)C2)c2c1C(=O)/C(=C/c1ccc(C(C)(C)C)cc1)O2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4001,25 +3975,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>505.57</v>
+        <v>511.64</v>
       </c>
       <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
         <v>3</v>
       </c>
-      <c r="I52" t="n">
-        <v>13</v>
-      </c>
-      <c r="J52" t="n">
-        <v>7</v>
-      </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>146.17</v>
+        <v>72.97</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4030,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73140&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4042,7 +4016,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C40168886</t>
+          <t>C08386466</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4050,12 +4024,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C[NH+](CCOC(=S)N[C@]1(C)CCS(=O)(=O)C1)CCOC(=S)N[C@]1(C)CCS(=O)(=O)C1</t>
+          <t>CC(=O)OC[C@@H]1O[C@@H](NC(=S)NN2CC[NH+](C)CC2)[C@@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>C[NH+](CCOC(=S)N[C@]1(C)CCS(=O)(=O)C1)CCOC(=S)N[C@]1(C)CCS(=O)(=O)C1</t>
+          <t>CC(=O)OC[C@@H]1O[C@@H](NC(=S)NN2CC[NH+](C)CC2)[C@@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4069,16 +4043,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>502.73</v>
+        <v>505.57</v>
       </c>
       <c r="H53" t="n">
         <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
         <v>2</v>
@@ -4087,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>115.24</v>
+        <v>146.17</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -4098,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73450&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4110,7 +4084,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C35653234</t>
+          <t>C40168886</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4118,12 +4092,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CC[C@@](O)(C(=O)[O-])C1=CC2=c3nc4c(cc3C[NH+]2C([O-])=C1CO)=C(CN(C)C)C(=O)C=C4</t>
+          <t>C[NH+](CCOC(=S)N[C@]1(C)CCS(=O)(=O)C1)CCOC(=S)N[C@]1(C)CCS(=O)(=O)C1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CC[C@@](O)(C(=O)[O-])C1=CC2=c3nc4c(cc3C[NH+]2C([O-])=C1CO)=C(CN(C)C)C(=O)C=C4</t>
+          <t>C[NH+](CCOC(=S)N[C@]1(C)CCS(=O)(=O)C1)CCOC(=S)N[C@]1(C)CCS(=O)(=O)C1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4137,25 +4111,25 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>438.46</v>
+        <v>502.73</v>
       </c>
       <c r="H54" t="n">
         <v>3</v>
       </c>
       <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
         <v>8</v>
       </c>
-      <c r="J54" t="n">
-        <v>6</v>
-      </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>141.29</v>
+        <v>115.24</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -4166,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73760&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4178,7 +4152,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C14829199</t>
+          <t>C35653234</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4186,12 +4160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>C=C(C)[C@@H]1Cc2c(cc(O)c3c2O[C@H]2[C@@H](O)Oc4cc(OC)c(OC)cc4[C@]2(O)C3=O)O1</t>
+          <t>CC[C@@](O)(C(=O)[O-])C1=CC2=c3nc4c(cc3C[NH+]2C([O-])=C1CO)=C(CN(C)C)C(=O)C=C4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>C=C(C)[C@@H]1Cc2c(cc(O)c3c2O[C@H]2[C@@H](O)Oc4cc(OC)c(OC)cc4[C@]2(O)C3=O)O1</t>
+          <t>CC[C@@](O)(C(=O)[O-])C1=CC2=c3nc4c(cc3C[NH+]2C([O-])=C1CO)=C(CN(C)C)C(=O)C=C4</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4205,25 +4179,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>442.42</v>
+        <v>438.46</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>123.91</v>
+        <v>141.29</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4234,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73990&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4246,7 +4220,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C12817980</t>
+          <t>C14829199</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4254,12 +4228,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>C[C@H](C(=O)Nc1ccc(F)cc1)[NH+]1CCC(C(=O)NCc2ccccc2)CC1</t>
+          <t>C=C(C)[C@@H]1Cc2c(cc(O)c3c2O[C@H]2[C@@H](O)Oc4cc(OC)c(OC)cc4[C@]2(O)C3=O)O1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C[C@H](C(=O)Nc1ccc(F)cc1)[NH+]1CCC(C(=O)NCc2ccccc2)CC1</t>
+          <t>C=C(C)[C@@H]1Cc2c(cc(O)c3c2O[C@H]2[C@@H](O)Oc4cc(OC)c(OC)cc4[C@]2(O)C3=O)O1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4273,25 +4247,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>384.48</v>
+        <v>442.42</v>
       </c>
       <c r="H56" t="n">
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L56" t="n">
         <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>62.64</v>
+        <v>123.91</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4302,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72FF0&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4314,7 +4288,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C39462728</t>
+          <t>C12817980</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4322,12 +4296,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CC(=O)NC1=C(Cl)C(Cl)=C(NC(C)=O)[C@H]2N=NN=C12</t>
+          <t>C[C@H](C(=O)Nc1ccc(F)cc1)[NH+]1CCC(C(=O)NCc2ccccc2)CC1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CC(=O)NC1=C(Cl)C(Cl)=C(NC(C)=O)[C@H]2N=NN=C12</t>
+          <t>C[C@H](C(=O)Nc1ccc(F)cc1)[NH+]1CCC(C(=O)NCc2ccccc2)CC1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4341,25 +4315,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>302.12</v>
+        <v>384.48</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>95.28</v>
+        <v>62.64</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4370,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72A40&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4382,7 +4356,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C40366902</t>
+          <t>C35483584</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4390,12 +4364,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c(C)c1S(=O)(=O)NC1(C#N)CCN(C)CC1</t>
+          <t>NC(=O)Cn1cnc2nc(N3CCCCC3)sc2c1=O</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c(C)c1S(=O)(=O)NC1(C#N)CCN(C)CC1</t>
+          <t>NC(=O)Cn1cnc2nc(N3CCCCC3)sc2c1=O</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4409,10 +4383,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>297.38</v>
+        <v>293.35</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>5</v>
@@ -4421,13 +4395,13 @@
         <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
-        <v>101.88</v>
+        <v>94.11</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4438,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72B20&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4450,7 +4424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C42876363</t>
+          <t>C39462728</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4458,12 +4432,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>O=S1(=O)C[C@@H](O)[C@@H](Oc2cc3c(cc2CO)OCO3)C1</t>
+          <t>CC(=O)NC1=C(Cl)C(Cl)=C(NC(C)=O)[C@H]2N=NN=C12</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>O=S1(=O)C[C@@H](O)[C@@H](Oc2cc3c(cc2CO)OCO3)C1</t>
+          <t>CC(=O)NC1=C(Cl)C(Cl)=C(NC(C)=O)[C@H]2N=NN=C12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4477,25 +4451,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>302.3</v>
+        <v>302.12</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>102.29</v>
+        <v>95.28</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4506,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72B90&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4518,7 +4492,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C43706753</t>
+          <t>C40366902</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4526,12 +4500,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CCCN(C(=O)N1CCO[C@@H](C(=O)[O-])C1)C1CC[NH2+]CC1</t>
+          <t>Cc1n[nH]c(C)c1S(=O)(=O)NC1(C#N)CCN(C)CC1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CCCN(C(=O)N1CCO[C@@H](C(=O)[O-])C1)C1CC[NH2+]CC1</t>
+          <t>Cc1n[nH]c(C)c1S(=O)(=O)NC1(C#N)CCN(C)CC1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4545,25 +4519,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>299.37</v>
+        <v>297.38</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>89.52</v>
+        <v>101.88</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4574,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72E30&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4586,7 +4560,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C48797179</t>
+          <t>C42876363</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4594,12 +4568,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>O=C1CCCc2[nH]c(=O)c(C(=O)Nc3nncs3)cc21</t>
+          <t>O=S1(=O)C[C@@H](O)[C@@H](Oc2cc3c(cc2CO)OCO3)C1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>O=C1CCCc2[nH]c(=O)c(C(=O)Nc3nncs3)cc21</t>
+          <t>O=S1(=O)C[C@@H](O)[C@@H](Oc2cc3c(cc2CO)OCO3)C1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4613,25 +4587,25 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>290.3</v>
+        <v>302.3</v>
       </c>
       <c r="H61" t="n">
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
         <v>3</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>104.81</v>
+        <v>102.29</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4642,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73220&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4654,7 +4628,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C39443870</t>
+          <t>C43706753</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4662,12 +4636,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[C@H](C2=NN=C(NC(C)(C)C)SC2)[C@H](C)N1c1ncn[nH]1</t>
+          <t>CCCN(C(=O)N1CCO[C@@H](C(=O)[O-])C1)C1CC[NH2+]CC1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>C[C@H]1[C@@H](C2=NN=C(NC(C)(C)C)SC2)C[C@@H](C)N1c1ncn[nH]1</t>
+          <t>CCCN(C(=O)N1CCO[C@@H](C(=O)[O-])C1)C1CC[NH2+]CC1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4681,25 +4655,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>335.48</v>
+        <v>299.37</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>81.56</v>
+        <v>89.52</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4710,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C735A0&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4722,7 +4696,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C05675966</t>
+          <t>C48797179</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4730,12 +4704,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nc1nnc(CC(=O)N/N=C\c2ccc(-c3ccc(Br)cc3)o2)s1</t>
+          <t>O=C1CCCc2[nH]c(=O)c(C(=O)Nc3nncs3)cc21</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Nc1nnc(CC(=O)N/N=C\c2ccc(-c3ccc(Br)cc3)o2)s1</t>
+          <t>O=C1CCCc2[nH]c(=O)c(C(=O)Nc3nncs3)cc21</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4749,7 +4723,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>406.26</v>
+        <v>290.3</v>
       </c>
       <c r="H63" t="n">
         <v>2</v>
@@ -4758,16 +4732,16 @@
         <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
         <v>3</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
-        <v>106.4</v>
+        <v>104.81</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4778,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73610&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4790,7 +4764,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C44319316</t>
+          <t>C39443870</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4798,12 +4772,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cc1c(Br)c(O)c(C[C@@H](NC(=O)OC(C)(C)C)C(=O)[O-])c(C)c1[N+](=O)[O-]</t>
+          <t>C[C@@H]1C[C@H](C2=NN=C(NC(C)(C)C)SC2)[C@H](C)N1c1ncn[nH]1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cc1c(Br)c(O)c(C[C@@H](NC(=O)OC(C)(C)C)C(=O)[O-])c(C)c1[N+](=O)[O-]</t>
+          <t>C[C@H]1[C@@H](C2=NN=C(NC(C)(C)C)SC2)C[C@@H](C)N1c1ncn[nH]1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4817,25 +4791,25 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>432.25</v>
+        <v>335.48</v>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>141.83</v>
+        <v>81.56</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4846,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73C30&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4858,7 +4832,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C01679675</t>
+          <t>C51994630</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4866,12 +4840,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nc1ncc(I)cn1</t>
+          <t>Nc1cc(S(=O)(=O)N[C@@H]2CCCC[C@@H]2O)c(Cl)cc1F</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Nc1ncc(I)cn1</t>
+          <t>Nc1cc(S(=O)(=O)N[C@@H]2CCCC[C@@H]2O)c(Cl)cc1F</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4885,25 +4859,25 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>221</v>
+        <v>322.79</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
         <v>3</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>51.8</v>
+        <v>92.42</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4914,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C726C0&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4926,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C04027654</t>
+          <t>C62826873</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4934,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>C[C@@]12CC[C@@](C)(O[C@@]1(C)O)[C@](C)(O)O2</t>
+          <t>[NH3+]C1(C(=O)Nc2c(Br)cccc2C(=O)[O-])CCCCC1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>C[C@@]1(O)O[C@]2(C)CC[C@@]1(C)O[C@@]2(C)O</t>
+          <t>[NH3+]C1(C(=O)Nc2c(Br)cccc2C(=O)[O-])CCCCC1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4953,25 +4927,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>202.25</v>
+        <v>341.21</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>58.92</v>
+        <v>96.87</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4982,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C727A0&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4994,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C62528118</t>
+          <t>C44319316</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5002,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cc1cc(N)cc2c1OC[C@@H](C)C(=O)N2C</t>
+          <t>Cc1c(Br)c(O)c(C[C@@H](NC(=O)OC(C)(C)C)C(=O)[O-])c(C)c1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cc1cc(N)cc2c1OC[C@@H](C)C(=O)N2C</t>
+          <t>Cc1c(Br)c(O)c(C[C@@H](NC(=O)OC(C)(C)C)C(=O)[O-])c(C)c1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5021,25 +4995,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>220.27</v>
+        <v>432.25</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>55.56</v>
+        <v>141.83</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5050,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72810&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5062,7 +5036,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C03876666</t>
+          <t>C01679675</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5070,12 +5044,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CNC(=O)N(O)[C@@H]1N(N)C(=S)SC1(C)C</t>
+          <t>Nc1ncc(I)cn1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CNC(=O)N(O)[C@@H]1N(N)C(=S)SC1(C)C</t>
+          <t>Nc1ncc(I)cn1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5089,25 +5063,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>250.35</v>
+        <v>221</v>
       </c>
       <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
         <v>3</v>
       </c>
-      <c r="I68" t="n">
-        <v>6</v>
-      </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>81.83</v>
+        <v>51.8</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5118,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72960&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5130,7 +5104,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C05503488</t>
+          <t>C04027654</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5138,12 +5112,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H](Sc2ncc[nH]2)[C@@H](O)[C@@H](O)[C@@H]1O</t>
+          <t>C[C@@]12CC[C@@](C)(O[C@@]1(C)O)[C@](C)(O)O2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H](Sc2ncc[nH]2)[C@@H](O)[C@@H](O)[C@@H]1O</t>
+          <t>C[C@@]1(O)O[C@]2(C)CC[C@@]1(C)O[C@@]2(C)O</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5157,25 +5131,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>246.29</v>
+        <v>202.25</v>
       </c>
       <c r="H69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>98.59999999999999</v>
+        <v>58.92</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5186,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C729D0&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5198,7 +5172,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C20528280</t>
+          <t>C62528118</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5206,12 +5180,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nn1c(N/N=C/c2ccc(Cl)cc2)nnc1SCc1cccc(Br)c1</t>
+          <t>Cc1cc(N)cc2c1OC[C@@H](C)C(=O)N2C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nn1c(N/N=C/c2ccc(Cl)cc2)nnc1SCc1cccc(Br)c1</t>
+          <t>Cc1cc(N)cc2c1OC[C@@H](C)C(=O)N2C</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5225,25 +5199,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>437.75</v>
+        <v>220.27</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>81.12</v>
+        <v>55.56</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5254,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C60A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72C70&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5266,7 +5240,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C02343294</t>
+          <t>C03876666</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5274,12 +5248,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>S=c1[nH]nc(C2CCCCC2)n1/N=C/c1cccc(Cl)c1Cl</t>
+          <t>CNC(=O)N(O)[C@@H]1N(N)C(=S)SC1(C)C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>S=c1[nH]nc(C2CCCCC2)n1/N=C/c1cccc(Cl)c1Cl</t>
+          <t>CNC(=O)N(O)[C@@H]1N(N)C(=S)SC1(C)C</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5293,25 +5267,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>355.29</v>
+        <v>250.35</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>45.97</v>
+        <v>81.83</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5322,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C55B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72D50&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5334,7 +5308,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C58611239</t>
+          <t>C05503488</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5342,12 +5316,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fc1cc2c(c(CSc3nc4cc(F)c(F)cc4[nH]3)c1)OCOC2</t>
+          <t>C[C@H]1O[C@@H](Sc2ncc[nH]2)[C@@H](O)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Fc1cc2c(c(CSc3nc4cc(F)c(F)cc4[nH]3)c1)OCOC2</t>
+          <t>C[C@H]1O[C@@H](Sc2ncc[nH]2)[C@@H](O)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5361,25 +5335,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>352.34</v>
+        <v>246.29</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>47.14</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5390,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72EA0&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5402,7 +5376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C00104205</t>
+          <t>C61887089</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5410,12 +5384,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>O=C1c2[nH]nc(-c3ccco3)c2[C@@H](c2ccccc2)N1c1ccccc1</t>
+          <t>N/C(=N/O)[C@H]1CCC[C@@H]1NC(=O)C1CCOCC1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>O=C1c2[nH]nc(-c3ccco3)c2[C@@H](c2ccccc2)N1c1ccccc1</t>
+          <t>N/C(=N/O)[C@H]1CCC[C@@H]1NC(=O)C1CCOCC1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5429,25 +5403,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>341.37</v>
+        <v>255.32</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
         <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>62.13</v>
+        <v>96.94</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5458,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72F10&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5470,7 +5444,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C08645160</t>
+          <t>C20528280</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5478,12 +5452,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>O=C1N=C([N-]c2ccc(O)cc2)SC1=C/C(Cl)=C/c1ccc([N+](=O)[O-])cc1</t>
+          <t>Nn1c(N/N=C/c2ccc(Cl)cc2)nnc1SCc1cccc(Br)c1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>O=C1N=C([N-]c2ccc(O)cc2)SC1=C/C(Cl)=C/c1ccc([N+](=O)[O-])cc1</t>
+          <t>Nn1c(N/N=C/c2ccc(Cl)cc2)nnc1SCc1cccc(Br)c1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5497,25 +5471,25 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>400.82</v>
+        <v>437.75</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
         <v>5</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K74" t="n">
         <v>3</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>106.9</v>
+        <v>81.12</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5526,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C61F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C730D0&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5538,7 +5512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C11756454</t>
+          <t>C02343294</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5546,12 +5520,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CCCCCCNc1nc(Cl)nc2cc(OC)c(OC)cc12</t>
+          <t>S=c1[nH]nc(C2CCCCC2)n1/N=C/c1cccc(Cl)c1Cl</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CCCCCCNc1nc(Cl)nc2cc(OC)c(OC)cc12</t>
+          <t>S=c1[nH]nc(C2CCCCC2)n1/N=C/c1cccc(Cl)c1Cl</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5565,25 +5539,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>323.82</v>
+        <v>355.29</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L75" t="n">
         <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>56.27</v>
+        <v>45.97</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5594,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C731B0&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5606,7 +5580,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C39326723</t>
+          <t>C58611239</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5614,12 +5588,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CCOC(=O)N1CC2=C(OC(N)=C(C#N)[C@H]2c2ccc(SC)cc2)/C(=C/c2ccc(SC)cc2)C1</t>
+          <t>Fc1cc2c(c(CSc3nc4cc(F)c(F)cc4[nH]3)c1)OCOC2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CCOC(=O)N1CC2=C(OC(N)=C(C#N)[C@H]2c2ccc(SC)cc2)/C(=C/c2ccc(SC)cc2)C1</t>
+          <t>Fc1cc2c(c(CSc3nc4cc(F)c(F)cc4[nH]3)c1)OCOC2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5633,25 +5607,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>505.67</v>
+        <v>352.34</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
         <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M76" t="n">
-        <v>88.58</v>
+        <v>47.14</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5662,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73290&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5674,7 +5648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C33785184</t>
+          <t>C00104205</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5682,12 +5656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>O=S(=O)(N[C@@H]1c2cccc3cccc(c23)[C@H]1Nc1ccccc1Br)c1ccccc1</t>
+          <t>O=C1c2[nH]nc(-c3ccco3)c2[C@@H](c2ccccc2)N1c1ccccc1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>O=S(=O)(N[C@@H]1c2cccc3cccc(c23)[C@H]1Nc1ccccc1Br)c1ccccc1</t>
+          <t>O=C1c2[nH]nc(-c3ccco3)c2[C@@H](c2ccccc2)N1c1ccccc1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5701,16 +5675,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>479.4</v>
+        <v>341.37</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
         <v>5</v>
@@ -5719,7 +5693,7 @@
         <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>58.2</v>
+        <v>62.13</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5730,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73300&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5742,7 +5716,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C57084036</t>
+          <t>C61444305</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5750,12 +5724,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>O=c1[nH]c(=O)n(Cc2ccccc2)c2c1C(C(F)(F)F)(C(F)(F)F)NC(c1cccs1)=[NH+]2</t>
+          <t>N#Cc1ccc(OC(=O)c2ccc3c(c2)NC(=O)CS3)c(Cl)c1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>O=c1[nH]c(=O)n(Cc2ccccc2)c2c1C(C(F)(F)F)(C(F)(F)F)NC(c1cccs1)=[NH+]2</t>
+          <t>N#Cc1ccc(OC(=O)c2ccc3c(c2)NC(=O)CS3)c(Cl)c1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5769,25 +5743,25 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>475.39</v>
+        <v>344.78</v>
       </c>
       <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="n">
         <v>3</v>
       </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3</v>
-      </c>
-      <c r="K78" t="n">
-        <v>4</v>
-      </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>80.86</v>
+        <v>79.19</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5798,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73370&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5810,7 +5784,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C05835439</t>
+          <t>C08645160</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5818,12 +5792,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>COc1cc(C[NH2+][C@@H]2CCc3cc(OC)c(OC)c(OC)c3-c3ccc(SC)c(=O)cc32)cc(OC)c1</t>
+          <t>O=C1N=C([N-]c2ccc(O)cc2)SC1=C/C(Cl)=C/c1ccc([N+](=O)[O-])cc1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>COc1cc(C[NH2+][C@@H]2CCc3cc(OC)c(OC)c(OC)c3-c3ccc(SC)c(=O)cc32)cc(OC)c1</t>
+          <t>O=C1N=C([N-]c2ccc(O)cc2)SC1=C/C(Cl)=C/c1ccc([N+](=O)[O-])cc1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5837,25 +5811,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>524.66</v>
+        <v>400.82</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J79" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>79.83</v>
+        <v>106.9</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5866,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C74C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C733E0&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5878,7 +5852,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C03196304</t>
+          <t>C11756454</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5886,12 +5860,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cc1cc(N[P@@]2(=S)/C(=C3\N(C)c4ccccc4C3(C)C)C=Nc3c2c(C)nn3CCC#N)n(-c2ccccc2)[nH+]1</t>
+          <t>CCCCCCNc1nc(Cl)nc2cc(OC)c(OC)cc12</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cc1cc(N[P@@]2(=S)/C(=C3\N(C)c4ccccc4C3(C)C)C=Nc3c2c(C)nn3CCC#N)n(-c2ccccc2)[nH+]1</t>
+          <t>CCCCCCNc1nc(Cl)nc2cc(OC)c(OC)cc12</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5905,7 +5879,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>567.6799999999999</v>
+        <v>323.82</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -5914,16 +5888,16 @@
         <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>88.31</v>
+        <v>56.27</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5934,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C65E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73530&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5946,7 +5920,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C59516368</t>
+          <t>C14461183</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5954,12 +5928,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CC(/C=C/c1ccc(N(C)C)cc1)=N/[NH+]=C(/N)S[C@H]1CC(=O)N(c2ccc(Cl)c(Cl)c2)C1=O</t>
+          <t>Oc1ccc(Br)cc1[C@@H]1Nc2c(OCCOc3ccccc3)cccc2[C@H]2C=CC[C@@H]21</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CC(/C=C/c1ccc(N(C)C)cc1)=N/[NH+]=C(/N)S[C@H]1CC(=O)N(c2ccc(Cl)c(Cl)c2)C1=O</t>
+          <t>Oc1ccc(Br)cc1[C@@H]1Nc2c(OCCOc3ccccc3)cccc2[C@H]2C=CC[C@@H]21</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5973,25 +5947,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>505.45</v>
+        <v>478.39</v>
       </c>
       <c r="H81" t="n">
         <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
         <v>6</v>
       </c>
       <c r="K81" t="n">
+        <v>5</v>
+      </c>
+      <c r="L81" t="n">
         <v>3</v>
       </c>
-      <c r="L81" t="n">
-        <v>2</v>
-      </c>
       <c r="M81" t="n">
-        <v>92.97</v>
+        <v>50.72</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -6002,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73680&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -6014,7 +5988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C39467570</t>
+          <t>C39326723</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6022,12 +5996,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>COC1=C[C@H]2C[NH+]3N[P@@](=O)(c4ccccc4O)OC[C@@H]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
+          <t>CCOC(=O)N1CC2=C(OC(N)=C(C#N)[C@H]2c2ccc(SC)cc2)/C(=C/c2ccc(SC)cc2)C1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>COC1=C[C@H]2C[NH+]3N[P@@](=O)(c4ccccc4O)OC[C@@H]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
+          <t>CCOC(=O)N1CC2=C(OC(N)=C(C#N)[C@H]2c2ccc(SC)cc2)/C(=C/c2ccc(SC)cc2)C1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6041,25 +6015,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>505.51</v>
+        <v>505.67</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J82" t="n">
         <v>5</v>
       </c>
       <c r="K82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
         <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>115.6</v>
+        <v>88.58</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6070,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73840&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6082,7 +6056,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C23817755</t>
+          <t>C33785184</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6090,12 +6064,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>COCc1c(C(=O)N2CCN(Cc3cc(=O)n4ccsc4n3)CC2)oc2ccccc12</t>
+          <t>O=S(=O)(N[C@@H]1c2cccc3cccc(c23)[C@H]1Nc1ccccc1Br)c1ccccc1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>COCc1c(C(=O)N2CCN(Cc3cc(=O)n4ccsc4n3)CC2)oc2ccccc12</t>
+          <t>O=S(=O)(N[C@@H]1c2cccc3cccc(c23)[C@H]1Nc1ccccc1Br)c1ccccc1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6109,13 +6083,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>438.51</v>
+        <v>479.4</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
         <v>5</v>
@@ -6127,7 +6101,7 @@
         <v>4</v>
       </c>
       <c r="M83" t="n">
-        <v>80.29000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6138,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C71230&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6150,7 +6124,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C65246378</t>
+          <t>C40476300</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6158,12 +6132,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>O=S(=O)(c1ccc(-c2nnc(C3CC3)o2)o1)N1CCN(c2ccc(F)cc2)CC1</t>
+          <t>CCCCCSc1nc2c(c(=O)[nH]1)[C@H](c1ccc(Br)cc1)C1=C(CC(C)(C)CC1=O)N2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>O=S(=O)(c1ccc(-c2nnc(C3CC3)o2)o1)N1CCN(c2ccc(F)cc2)CC1</t>
+          <t>CCCCCSc1nc2c(c(=O)[nH]1)[C@H](c1ccc(Br)cc1)C1=C(CC(C)(C)CC1=O)N2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6177,25 +6151,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>418.45</v>
+        <v>502.48</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
-        <v>92.68000000000001</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6206,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C722D0&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6218,7 +6192,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C25638569</t>
+          <t>C57084036</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6226,12 +6200,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CC(C)[C@@](C)(C#N)NC(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl</t>
+          <t>O=c1[nH]c(=O)n(Cc2ccccc2)c2c1C(C(F)(F)F)(C(F)(F)F)NC(c1cccs1)=[NH+]2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CC(C)[C@@](C)(C#N)NC(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl</t>
+          <t>O=c1[nH]c(=O)n(Cc2ccccc2)c2c1C(C(F)(F)F)(C(F)(F)F)NC(c1cccs1)=[NH+]2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6245,25 +6219,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>393.66</v>
+        <v>475.39</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
-        <v>118.1</v>
+        <v>80.86</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6274,7 +6248,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72730&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6286,7 +6260,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C09512901</t>
+          <t>C05835439</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6294,12 +6268,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>N#Cc1c(CCCNc2ncnc3scc(-c4ccc(F)cc4)c23)n[nH]c1N</t>
+          <t>COc1cc(C[NH2+][C@@H]2CCc3cc(OC)c(OC)c(OC)c3-c3ccc(SC)c(=O)cc32)cc(OC)c1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>N#Cc1c(CCCNc2ncnc3scc(-c4ccc(F)cc4)c23)n[nH]c1N</t>
+          <t>COc1cc(C[NH2+][C@@H]2CCc3cc(OC)c(OC)c(OC)c3-c3ccc(SC)c(=O)cc32)cc(OC)c1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6313,25 +6287,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>393.45</v>
+        <v>524.66</v>
       </c>
       <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>9</v>
+      </c>
+      <c r="K86" t="n">
+        <v>4</v>
+      </c>
+      <c r="L86" t="n">
         <v>3</v>
       </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>6</v>
-      </c>
-      <c r="K86" t="n">
-        <v>4</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4</v>
-      </c>
       <c r="M86" t="n">
-        <v>116.3</v>
+        <v>79.83</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6342,7 +6316,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C66C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72F80&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6354,7 +6328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C05635252</t>
+          <t>C03196304</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6362,12 +6336,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>O=C(NCCCn1cc[nH+]c1)c1cnn2c1N[C@H](c1ccco1)C[C@H]2C(F)(F)F</t>
+          <t>Cc1cc(N[P@@]2(=S)/C(=C3\N(C)c4ccccc4C3(C)C)C=Nc3c2c(C)nn3CCC#N)n(-c2ccccc2)[nH+]1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>O=C(NCCCn1cc[nH+]c1)c1cnn2c1N[C@H](c1ccco1)C[C@H]2C(F)(F)F</t>
+          <t>Cc1cc(N[P@@]2(=S)/C(=C3\N(C)c4ccccc4C3(C)C)C=Nc3c2c(C)nn3CCC#N)n(-c2ccccc2)[nH+]1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6381,25 +6355,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>409.39</v>
+        <v>567.6799999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
+        <v>5</v>
+      </c>
+      <c r="K87" t="n">
         <v>6</v>
       </c>
-      <c r="K87" t="n">
-        <v>4</v>
-      </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M87" t="n">
-        <v>91.16</v>
+        <v>88.31</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6410,7 +6384,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73060&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6422,7 +6396,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C38742530</t>
+          <t>C49112160</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6430,12 +6404,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>COc1ccc(CC2=NN3[C@@H]([C@@H]4C=C(C(C)C)N=N4)NN[C@H]3S2)cc1OC</t>
+          <t>Oc1cccc(-c2c(-c3ccncc3)nn3c(-c4ccc(N[C@@H]5C[NH+]6CCC5CC6)cc4)ccnc23)c1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>COc1ccc(CC2=NN3[C@@H]([C@@H]4C=C(C(C)C)N=N4)NN[C@H]3S2)cc1OC</t>
+          <t>Oc1cccc(-c2c(-c3ccncc3)nn3c(-c4ccc(N[C@@H]5C[NH+]6CCC5CC6)cc4)ccnc23)c1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6449,25 +6423,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>388.5</v>
+        <v>489.6</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M88" t="n">
-        <v>82.84</v>
+        <v>79.78</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6478,7 +6452,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C737D0&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6490,7 +6464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C35361315</t>
+          <t>C02335177</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6498,12 +6472,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@]1(C(N)=O)O[C@@]12CC[C@@H]1[C@H]3CC=C4C[C@@H](OC(C)=O)CC[C@]4(C)[C@H]3CC[C@@]12C</t>
+          <t>CSc1nc(NCC[NH+]2CCOCC2)c2sc3nc(-c4ccccc4)c4c(c3c2n1)CCC4</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@]1(C(N)=O)O[C@@]12CC[C@@H]1[C@H]3CC=C4C[C@@H](OC(C)=O)CC[C@]4(C)[C@H]3CC[C@@]12C</t>
+          <t>CSc1nc(NCC[NH+]2CCOCC2)c2sc3nc(-c4ccccc4)c4c(c3c2n1)CCC4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6517,25 +6491,25 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>459.58</v>
+        <v>478.67</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
         <v>6</v>
       </c>
       <c r="J89" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M89" t="n">
-        <v>108.22</v>
+        <v>64.37</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6546,7 +6520,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C69D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73920&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6558,7 +6532,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C67578082</t>
+          <t>C38806115</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6566,12 +6540,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>C#CCNC(=O)CNC(=O)Nc1nc2cc3c(cc2s1)OC(F)(F)O3</t>
+          <t>CCOC(=O)c1c(NC(=O)/C=C/c2cc(OC)c(OC)c(OC)c2)sc2c1CC(C)(C)[NH2+]C2(C)C</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C#CCNC(=O)CNC(=O)Nc1nc2cc3c(cc2s1)OC(F)(F)O3</t>
+          <t>CCOC(=O)c1c(NC(=O)/C=C/c2cc(OC)c(OC)c(OC)c2)sc2c1CC(C)(C)[NH2+]C2(C)C</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6585,16 +6559,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>368.32</v>
+        <v>503.64</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J90" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K90" t="n">
         <v>3</v>
@@ -6603,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="M90" t="n">
-        <v>101.58</v>
+        <v>99.7</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6614,7 +6588,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73CA0&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6626,7 +6600,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C58500444</t>
+          <t>C59516368</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6634,12 +6608,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@H](C)Sc3nnnn3C(C)(C)C)nc(N)c2c1C</t>
+          <t>CC(/C=C/c1ccc(N(C)C)cc1)=N/[NH+]=C(/N)S[C@H]1CC(=O)N(c2ccc(Cl)c(Cl)c2)C1=O</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@H](C)Sc3nnnn3C(C)(C)C)nc(N)c2c1C</t>
+          <t>CC(/C=C/c1ccc(N(C)C)cc1)=N/[NH+]=C(/N)S[C@H]1CC(=O)N(c2ccc(Cl)c(Cl)c2)C1=O</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6653,25 +6627,25 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>363.52</v>
+        <v>505.45</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K91" t="n">
         <v>3</v>
       </c>
       <c r="L91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M91" t="n">
-        <v>95.40000000000001</v>
+        <v>92.97</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6682,7 +6656,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C73D10&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6694,7 +6668,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C66790290</t>
+          <t>C33154782</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6702,12 +6676,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CC(C)(C)OC(=O)N1CCC[C@@H]1C(=O)NNC(=O)CC1CCCCC1</t>
+          <t>COc1cc2c(cc1OC)/C(=N\[NH+]=C1\NC(C)(C)Cc3cc(OC)c(OC)cc31)NC(C)(C)C2</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CC(C)(C)OC(=O)N1CCC[C@@H]1C(=O)NNC(=O)CC1CCCCC1</t>
+          <t>COc1cc2c(cc1OC)/C(=N\[NH+]=C1\NC(C)(C)Cc3cc(OC)c(OC)cc31)NC(C)(C)C2</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6717,29 +6691,29 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>353.46</v>
+        <v>467.59</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M92" t="n">
-        <v>87.73999999999999</v>
+        <v>87.31</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -6750,7 +6724,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72C00&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6762,7 +6736,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C62641952</t>
+          <t>C39467570</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6770,12 +6744,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>O=C(Nc1nnc(C(F)(F)F)s1)C(=O)N1CC2C[C@@H]3CC1C[C@H](C2)C3</t>
+          <t>COC1=C[C@H]2C[NH+]3N[P@@](=O)(c4ccccc4O)OC[C@@H]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>O=C(Nc1nnc(C(F)(F)F)s1)C(=O)N1CC2C[C@H]3CC1C[C@@H](C2)C3</t>
+          <t>COC1=C[C@H]2C[NH+]3N[P@@](=O)(c4ccccc4O)OC[C@@H]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6785,29 +6759,29 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>374.39</v>
+        <v>505.51</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K93" t="n">
         <v>5</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>75.19</v>
+        <v>115.6</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -6818,7 +6792,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C725E0&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6830,7 +6804,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C36622497</t>
+          <t>C23817755</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6838,12 +6812,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C[C@@H]1CC(C)(C)C[C@]2(C1)NC(=O)N(CC(=O)NCc1cc([N+](=O)[O-])ccc1O)C2=O</t>
+          <t>COCc1c(C(=O)N2CCN(Cc3cc(=O)n4ccsc4n3)CC2)oc2ccccc12</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>C[C@@H]1CC(C)(C)C[C@]2(C1)NC(=O)N(CC(=O)NCc1cc([N+](=O)[O-])ccc1O)C2=O</t>
+          <t>COCc1c(C(=O)N2CCN(Cc3cc(=O)n4ccsc4n3)CC2)oc2ccccc12</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6853,14 +6827,14 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>418.45</v>
+        <v>438.51</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>6</v>
@@ -6869,13 +6843,13 @@
         <v>5</v>
       </c>
       <c r="K94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>141.88</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -6886,7 +6860,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72CE0&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6898,7 +6872,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C13352661</t>
+          <t>C65246378</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6906,12 +6880,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cc1c(C(=O)[O-])sc2nc(CSc3nc(-c4ccc(Cl)cc4)n[nH]3)[nH]c(=O)c12</t>
+          <t>O=S(=O)(c1ccc(-c2nnc(C3CC3)o2)o1)N1CCN(c2ccc(F)cc2)CC1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Cc1c(C(=O)[O-])sc2nc(CSc3nc(-c4ccc(Cl)cc4)n[nH]3)[nH]c(=O)c12</t>
+          <t>O=S(=O)(c1ccc(-c2nnc(C3CC3)o2)o1)N1CCN(c2ccc(F)cc2)CC1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6921,14 +6895,14 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>432.89</v>
+        <v>418.45</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>7</v>
@@ -6937,13 +6911,13 @@
         <v>5</v>
       </c>
       <c r="K95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M95" t="n">
-        <v>127.45</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -6954,7 +6928,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C72DC0&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -6966,7 +6940,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C50566215</t>
+          <t>C25638569</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -6974,12 +6948,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCN(S(N)(=O)=O)[C@@H]1C</t>
+          <t>CC(C)[C@@](C)(C#N)NC(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCN(S(N)(=O)=O)[C@@H]1C</t>
+          <t>CC(C)[C@@](C)(C#N)NC(=O)COC(=O)c1nc(Cl)c(Cl)c(N)c1Cl</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6989,29 +6963,29 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>192.28</v>
+        <v>393.66</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>63.4</v>
+        <v>118.1</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -7022,7 +6996,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C52A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C728F0&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7034,7 +7008,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C10291948</t>
+          <t>C09512901</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7042,12 +7016,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CC[C@@H](C)Oc1ccc(C(=O)NNC(=O)COc2c(C)cc(Br)cc2Br)cc1</t>
+          <t>N#Cc1c(CCCNc2ncnc3scc(-c4ccc(F)cc4)c23)n[nH]c1N</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CC[C@@H](C)Oc1ccc(C(=O)NNC(=O)COc2c(C)cc(Br)cc2Br)cc1</t>
+          <t>N#Cc1c(CCCNc2ncnc3scc(-c4ccc(F)cc4)c23)n[nH]c1N</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7057,29 +7031,29 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>514.21</v>
+        <v>393.45</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M97" t="n">
-        <v>76.66</v>
+        <v>116.3</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -7090,7 +7064,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C734C0&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7102,7 +7076,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C01936458</t>
+          <t>C05635252</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7110,12 +7084,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CCOc1ccccc1Oc1c(C(F)(F)F)oc2c(C[NH+](CC(C)C)CC(C)C)c(O)ccc2c1=O</t>
+          <t>O=C(NCCCn1cc[nH+]c1)c1cnn2c1N[C@H](c1ccco1)C[C@H]2C(F)(F)F</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CCOc1ccccc1Oc1c(C(F)(F)F)oc2c(C[NH+](CC(C)C)CC(C)C)c(O)ccc2c1=O</t>
+          <t>O=C(NCCCn1cc[nH+]c1)c1cnn2c1N[C@H](c1ccco1)C[C@H]2C(F)(F)F</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7125,29 +7099,29 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>508.56</v>
+        <v>409.39</v>
       </c>
       <c r="H98" t="n">
         <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L98" t="n">
         <v>3</v>
       </c>
       <c r="M98" t="n">
-        <v>73.34</v>
+        <v>91.16</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -7158,7 +7132,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C738B0&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7170,7 +7144,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C12558274</t>
+          <t>C59817058</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7178,12 +7152,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(C23C[C@@H]4C[C@@H](CC(O)(C4)C2)C3)cc1)c1ccc(S(=O)(=O)N2CCCCC2)cc1</t>
+          <t>C/C(=N\Nc1nc(SCCN2CCOCC2)n[nH]1)C12CC3CC(CC(C3)C1)C2</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(C23C[C@@H]4C[C@@H](CC(O)(C4)C2)C3)cc1)c1ccc(S(=O)(=O)N2CCCCC2)cc1</t>
+          <t>C/C(=N\Nc1nc(SCCN2CCOCC2)n[nH]1)C12CC3CC(CC(C3)C1)C2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7193,29 +7167,29 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>494.66</v>
+        <v>404.58</v>
       </c>
       <c r="H99" t="n">
         <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J99" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>86.70999999999999</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -7226,7 +7200,7 @@
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C77A00&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7238,7 +7212,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C39652931</t>
+          <t>C38742530</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7246,12 +7220,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cc1cc(C(=O)N2C[C@@H](C(=O)NCCc3ccc(Br)cc3)C3(CC[NH2+]CC3)C2)n(C(C)(C)C)n1</t>
+          <t>COc1ccc(CC2=NN3[C@@H]([C@@H]4C=C(C(C)C)N=N4)NN[C@H]3S2)cc1OC</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Cc1cc(C(=O)N2C[C@@H](C(=O)NCCc3ccc(Br)cc3)C3(CC[NH2+]CC3)C2)n(C(C)(C)C)n1</t>
+          <t>COc1ccc(CC2=NN3[C@@H]([C@@H]4C=C(C(C)C)N=N4)NN[C@H]3S2)cc1OC</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7261,29 +7235,29 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>531.52</v>
+        <v>388.5</v>
       </c>
       <c r="H100" t="n">
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K100" t="n">
         <v>4</v>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>83.84</v>
+        <v>82.84</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -7294,7 +7268,7 @@
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C68F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C777D0&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7306,7 +7280,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>C08800321</t>
+          <t>C35361315</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7314,12 +7288,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CCOc1ccc(S(=O)(=O)NC[C@@H](c2ccc3c(c2)CCCN3C)[NH+]2CCCCC2)cc1F</t>
+          <t>CCOC(=O)[C@]1(C(N)=O)O[C@@]12CC[C@@H]1[C@H]3CC=C4C[C@@H](OC(C)=O)CC[C@]4(C)[C@H]3CC[C@@]12C</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CCOc1ccc(S(=O)(=O)NC[C@@H](c2ccc3c(c2)CCCN3C)[NH+]2CCCCC2)cc1F</t>
+          <t>CCOC(=O)[C@]1(C(N)=O)O[C@@]12CC[C@@H]1[C@H]3CC=C4C[C@@H](OC(C)=O)CC[C@]4(C)[C@H]3CC[C@@]12C</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7329,29 +7303,29 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>476.64</v>
+        <v>459.58</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J101" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>63.08</v>
+        <v>108.22</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -7362,7 +7336,7 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C775A0&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7374,7 +7348,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C20466089</t>
+          <t>C67578082</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7382,12 +7356,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CCN(CC)C(=O)[C@@H](C)[C@@H]1CC[C@@]2(C)CC[C@H](NC(C)=O)[C@@H](C)[C@@H]2[C@H]1O</t>
+          <t>C#CCNC(=O)CNC(=O)Nc1nc2cc3c(cc2s1)OC(F)(F)O3</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CCN(CC)C(=O)[C@@H](C)[C@@H]1CC[C@@]2(C)CC[C@H](NC(C)=O)[C@@H](C)[C@@H]2[C@H]1O</t>
+          <t>C#CCNC(=O)CNC(=O)Nc1nc2cc3c(cc2s1)OC(F)(F)O3</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7397,29 +7371,29 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>366.55</v>
+        <v>368.32</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
+        <v>5</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4</v>
+      </c>
+      <c r="K102" t="n">
         <v>3</v>
       </c>
-      <c r="J102" t="n">
-        <v>5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>2</v>
-      </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
-        <v>69.64</v>
+        <v>101.58</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -7430,7 +7404,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C77060&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7442,7 +7416,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>C20357023</t>
+          <t>C58500444</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7450,12 +7424,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)CSc2nc3c(=O)[nH]cnc3n2C[C@@H]2CCCO2)c(C)c1</t>
+          <t>Cc1sc2nc([C@H](C)Sc3nnnn3C(C)(C)C)nc(N)c2c1C</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)CSc2nc3c(=O)[nH]cnc3n2C[C@@H]2CCCO2)c(C)c1</t>
+          <t>Cc1sc2nc([C@H](C)Sc3nnnn3C(C)(C)C)nc(N)c2c1C</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7465,29 +7439,29 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>413.5</v>
+        <v>363.52</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L103" t="n">
         <v>3</v>
       </c>
       <c r="M103" t="n">
-        <v>101.9</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -7498,7 +7472,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76E30&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -7510,7 +7484,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CHEMBL523487</t>
+          <t>C66790290</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7518,12 +7492,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>O=C(c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-])N1CCCC1</t>
+          <t>CC(C)(C)OC(=O)N1CCC[C@@H]1C(=O)NNC(=O)CC1CCCCC1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>O=C(c1sc2c([N+](=O)[O-])cc(C(F)(F)F)cc2[n+]1[O-])N1CCCC1</t>
+          <t>CC(C)(C)OC(=O)N1CCC[C@@H]1C(=O)NNC(=O)CC1CCCCC1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7533,66 +7507,40 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>361.3</v>
+        <v>353.46</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
         <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>90.39</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
-        <v>56000</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>CHEMBL985261</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>87.73999999999999</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C769D0&gt;</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -7604,7 +7552,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CHEMBL1922225</t>
+          <t>C62641952</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7612,12 +7560,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>C=C(CC[C@@H](C)[C@H]1CC[C@H]2[C@H](CCc3cc(O)ccc3C)C(=O)CC[C@]12C)C(C)C</t>
+          <t>O=C(Nc1nnc(C(F)(F)F)s1)C(=O)N1CC2C[C@@H]3CC1C[C@H](C2)C3</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>C=C(CC[C@@H](C)[C@H]1CC[C@H]2[C@H](CCc3cc(O)ccc3C)C(=O)CC[C@@]21C)C(C)C</t>
+          <t>O=C(Nc1nnc(C(F)(F)F)s1)C(=O)N1CC2C[C@H]3CC1C[C@@H](C2)C3</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7627,66 +7575,40 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>410.64</v>
+        <v>374.39</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J105" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
       <c r="M105" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q105" t="n">
-        <v>100000</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>CHEMBL1926231</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human PLK1 using casein as substrate</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>75.19</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76730&gt;</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -7698,7 +7620,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CHEMBL2216825</t>
+          <t>C50566215</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7706,12 +7628,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
+          <t>C[C@@H]1CCCN(S(N)(=O)=O)[C@@H]1C</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
+          <t>C[C@@H]1CCCN(S(N)(=O)=O)[C@@H]1C</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7721,66 +7643,40 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>457.48</v>
+        <v>192.28</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>CHEMBL1019633</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>63.4</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C77140&gt;</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -7792,7 +7688,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CHEMBL3759085</t>
+          <t>C10291948</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7800,12 +7696,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1ncnc2sc(-c3ccccc3C(N)=O)cc12)c1ccccc1</t>
+          <t>CC[C@@H](C)Oc1ccc(C(=O)NNC(=O)COc2c(C)cc(Br)cc2Br)cc1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1ncnc2sc(-c3ccccc3C(N)=O)cc12)c1ccccc1</t>
+          <t>CC[C@@H](C)Oc1ccc(C(=O)NNC(=O)COc2c(C)cc(Br)cc2Br)cc1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7815,11 +7711,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>374.47</v>
+        <v>514.21</v>
       </c>
       <c r="H107" t="n">
         <v>2</v>
@@ -7828,53 +7724,27 @@
         <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M107" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q107" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>CHEMBL3761596</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) at 500 nM</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>76.66</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C5230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C768F0&gt;</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -7886,7 +7756,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CHEMBL160333</t>
+          <t>C43218792</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -7894,12 +7764,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
+          <t>CCCCN1C(=O)[C@H]2[C@@H](c3cc(Cl)cc(Cl)c3Cl)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
+          <t>CCCCN1C(=O)[C@H]2[C@@H](c3cc(Cl)cc(Cl)c3Cl)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7909,66 +7779,40 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>349.17</v>
+        <v>495.79</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>4</v>
       </c>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L108" t="n">
         <v>2</v>
       </c>
       <c r="M108" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q108" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>94.12</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C773E0&gt;</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -7980,7 +7824,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CHEMBL1909342</t>
+          <t>C01936458</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -7988,12 +7832,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
+          <t>CCOc1ccccc1Oc1c(C(F)(F)F)oc2c(C[NH+](CC(C)C)CC(C)C)c(O)ccc2c1=O</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
+          <t>CCOc1ccccc1Oc1c(C(F)(F)F)oc2c(C[NH+](CC(C)C)CC(C)C)c(O)ccc2c1=O</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -8003,66 +7847,40 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>305.4</v>
+        <v>508.56</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K109" t="n">
         <v>3</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M109" t="n">
-        <v>65.36</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>73.34</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C77990&gt;</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -8074,7 +7892,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CHEMBL1909414</t>
+          <t>C12558274</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8082,12 +7900,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CN(C)CCOc1ccc(-c2nc(-c3ccncc3)c(-c3ccc4c(c3)CC/C4=N\O)[nH]2)cc1</t>
+          <t>O=C(Nc1ccc(C23C[C@@H]4C[C@@H](CC(O)(C4)C2)C3)cc1)c1ccc(S(=O)(=O)N2CCCCC2)cc1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CN(C)CCOc1ccc(-c2nc(-c3ccncc3)c(-c3ccc4c(c3)CC/C4=N\O)[nH]2)cc1</t>
+          <t>O=C(Nc1ccc(C23C[C@@H]4C[C@@H](CC(O)(C4)C2)C3)cc1)c1ccc(S(=O)(=O)N2CCCCC2)cc1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -8097,66 +7915,40 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>453.55</v>
+        <v>494.66</v>
       </c>
       <c r="H110" t="n">
         <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
+        <v>5</v>
+      </c>
+      <c r="K110" t="n">
         <v>7</v>
       </c>
-      <c r="K110" t="n">
-        <v>5</v>
-      </c>
       <c r="L110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M110" t="n">
-        <v>86.63</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q110" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>86.70999999999999</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C778B0&gt;</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -8168,7 +7960,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CHEMBL220244</t>
+          <t>C39652931</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8176,12 +7968,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cc1cc(O)cc(C)c1/C=C/c1cncc(C(=O)N(C)C)c1</t>
+          <t>Cc1cc(C(=O)N2C[C@@H](C(=O)NCCc3ccc(Br)cc3)C3(CC[NH2+]CC3)C2)n(C(C)(C)C)n1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Cc1cc(O)cc(C)c1/C=C/c1cncc(C(=O)N(C)C)c1</t>
+          <t>Cc1cc(C(=O)N2C[C@@H](C(=O)NCCc3ccc(Br)cc3)C3(CC[NH2+]CC3)C2)n(C(C)(C)C)n1</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8191,66 +7983,40 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>296.37</v>
+        <v>531.52</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
       </c>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L111" t="n">
         <v>2</v>
       </c>
       <c r="M111" t="n">
-        <v>53.43</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q111" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.84</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C6180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C77840&gt;</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -8262,7 +8028,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CHEMBL427159</t>
+          <t>C08800321</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8270,12 +8036,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
+          <t>CCOc1ccc(S(=O)(=O)NC[C@@H](c2ccc3c(c2)CCCN3C)[NH+]2CCCCC2)cc1F</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
+          <t>CCOc1ccc(S(=O)(=O)NC[C@@H](c2ccc3c(c2)CCCN3C)[NH+]2CCCCC2)cc1F</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8285,66 +8051,40 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>430.42</v>
+        <v>476.64</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J112" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L112" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M112" t="n">
-        <v>77.23</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q112" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>CHEMBL1962096</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PLK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>63.08</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C4900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C77760&gt;</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -8356,7 +8096,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>C12217201</t>
+          <t>C39559530</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8364,12 +8104,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>O=c1c2c3c(sc2ncn1Cc1cccc(F)c1)C[C@H]([NH2+]CCc1c[nH]c2ccccc12)CC3</t>
+          <t>O=C(/C=C/c1cc(C(F)(F)F)ccc1Cl)NCC(=O)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>O=c1c2c3c(sc2ncn1Cc1cccc(F)c1)C[C@H]([NH2+]CCc1c[nH]c2ccccc12)CC3</t>
+          <t>O=C(/C=C/c1cc(C(F)(F)F)ccc1Cl)NCC(=O)Nc1ccc2[nH]c(=O)[nH]c2c1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8379,29 +8119,29 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>473.6</v>
+        <v>438.79</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K113" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L113" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M113" t="n">
-        <v>67.29000000000001</v>
+        <v>106.85</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -8412,10 +8152,146 @@
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001462E5C63B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C776F0&gt;</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>C20466089</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CCN(CC)C(=O)[C@@H](C)[C@@H]1CC[C@@]2(C)CC[C@H](NC(C)=O)[C@@H](C)[C@@H]2[C@H]1O</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CCN(CC)C(=O)[C@@H](C)[C@@H]1CC[C@@]2(C)CC[C@H](NC(C)=O)[C@@H](C)[C@@H]2[C@H]1O</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>G2 inactive</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>366.55</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>5</v>
+      </c>
+      <c r="K114" t="n">
+        <v>2</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C77450&gt;</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>C20357023</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Cc1ccc(NC(=O)CSc2nc3c(=O)[nH]cnc3n2C[C@@H]2CCCO2)c(C)c1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Cc1ccc(NC(=O)CSc2nc3c(=O)[nH]cnc3n2C[C@@H]2CCCO2)c(C)c1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>G2 inactive</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>413.5</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6</v>
+      </c>
+      <c r="J115" t="n">
+        <v>6</v>
+      </c>
+      <c r="K115" t="n">
+        <v>4</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3</v>
+      </c>
+      <c r="M115" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2C6C76EA0&gt;</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
